--- a/STB32/Confiabilidade.xlsx
+++ b/STB32/Confiabilidade.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade_de_Sistemas_Eletricos_de_Potencia_PPGEE_UFSM\STB32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AC45BE-4AFE-49DC-9D59-16505D012B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B2DC8-191E-43CA-9907-F07CC9FE8375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="4" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="109">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -427,18 +427,6 @@
     <t>Divergente</t>
   </si>
   <si>
-    <t>Soma</t>
-  </si>
-  <si>
-    <t>Média</t>
-  </si>
-  <si>
-    <t>Soma Acumulada</t>
-  </si>
-  <si>
-    <t>Contagem</t>
-  </si>
-  <si>
     <t>Ptotal</t>
   </si>
   <si>
@@ -454,7 +442,7 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-    <numFmt numFmtId="171" formatCode="0.000000%"/>
+    <numFmt numFmtId="168" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -623,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -637,16 +625,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,14 +640,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -685,18 +657,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -728,6 +712,25 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -774,6 +777,155 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -837,11 +989,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -852,6 +1000,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -915,11 +1069,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -930,6 +1080,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -993,11 +1149,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1008,6 +1160,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1071,11 +1229,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1086,6 +1240,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1149,11 +1309,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1164,6 +1320,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1226,6 +1389,26 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1233,8 +1416,12 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1245,7 +1432,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1260,10 +1447,457 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1997,10 +2631,21 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2014,715 +2659,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2751,6 +2687,54 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
@@ -3212,28 +3196,28 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="16" dataDxfId="58" totalsRowDxfId="15" headerRowBorderDxfId="36" tableBorderDxfId="37" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="58" dataDxfId="56" totalsRowDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="53">
   <autoFilter ref="B1:J7" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="48" totalsRowDxfId="47">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="44" totalsRowDxfId="43">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -3243,45 +3227,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="38" dataDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
   <autoFilter ref="B1:P32" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="53" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="52" totalsRowDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="51" totalsRowDxfId="12">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="25" totalsRowDxfId="24">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="50" totalsRowDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="49" totalsRowDxfId="10">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="21" totalsRowDxfId="20">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="48" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="47" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="46" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="45" totalsRowDxfId="6">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="44" totalsRowDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="43" totalsRowDxfId="4">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="42" totalsRowDxfId="3">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="41" totalsRowDxfId="2">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="1">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="39" totalsRowDxfId="0">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</totalsRowFormula>
     </tableColumn>
@@ -25329,28 +25313,28 @@
       <c r="I1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -25364,7 +25348,7 @@
       <c r="C2" s="1">
         <v>9.6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="1">
@@ -25382,28 +25366,28 @@
       <c r="I2" s="1">
         <v>897</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="L2" s="11">
+      <c r="L2" s="8">
         <v>509</v>
       </c>
-      <c r="M2" s="11">
-        <v>2</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="M2" s="8">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8">
         <v>9.6</v>
       </c>
-      <c r="O2" s="11">
+      <c r="O2" s="8">
         <v>955</v>
       </c>
-      <c r="P2" s="11">
+      <c r="P2" s="8">
         <v>946</v>
       </c>
-      <c r="Q2" s="11">
+      <c r="Q2" s="8">
         <v>960</v>
       </c>
-      <c r="R2" s="11">
+      <c r="R2" s="8">
         <v>1015</v>
       </c>
     </row>
@@ -25417,7 +25401,7 @@
       <c r="C3" s="1">
         <v>5.5</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1">
         <v>13</v>
       </c>
@@ -25433,26 +25417,26 @@
       <c r="I3" s="1">
         <v>959</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="11">
+      <c r="K3" s="27"/>
+      <c r="L3" s="8">
         <v>517</v>
       </c>
-      <c r="M3" s="11">
-        <v>2</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8">
         <v>5.5</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="8">
         <v>955</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="8">
         <v>946</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="8">
         <v>1010</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="8">
         <v>947</v>
       </c>
     </row>
@@ -25466,7 +25450,7 @@
       <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1">
         <v>24</v>
       </c>
@@ -25482,26 +25466,26 @@
       <c r="I4" s="1">
         <v>979</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="11">
+      <c r="K4" s="27"/>
+      <c r="L4" s="8">
         <v>508</v>
       </c>
-      <c r="M4" s="11">
-        <v>2</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8">
         <v>5.2</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="8">
         <v>955</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="8">
         <v>946</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="8">
         <v>959</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="8">
         <v>895</v>
       </c>
     </row>
@@ -25515,7 +25499,7 @@
       <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1">
         <v>20</v>
       </c>
@@ -25531,26 +25515,26 @@
       <c r="I5" s="1">
         <v>976</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="11">
+      <c r="K5" s="27"/>
+      <c r="L5" s="8">
         <v>352</v>
       </c>
-      <c r="M5" s="11">
-        <v>2</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="8">
         <v>933</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="8">
         <v>955</v>
       </c>
-      <c r="Q5" s="11">
+      <c r="Q5" s="8">
         <v>955</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="8">
         <v>946</v>
       </c>
     </row>
@@ -25564,7 +25548,7 @@
       <c r="C6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1">
         <v>23</v>
       </c>
@@ -25580,26 +25564,26 @@
       <c r="I6" s="1">
         <v>964</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="11">
+      <c r="K6" s="27"/>
+      <c r="L6" s="8">
         <v>349</v>
       </c>
-      <c r="M6" s="11">
-        <v>1</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
         <v>3.5</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="8">
         <v>933</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="8">
         <v>955</v>
       </c>
-      <c r="Q6" s="11">
+      <c r="Q6" s="8">
         <v>938</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="8">
         <v>946</v>
       </c>
     </row>
@@ -25625,26 +25609,26 @@
       <c r="I7" s="1">
         <v>979</v>
       </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="11">
+      <c r="K7" s="27"/>
+      <c r="L7" s="8">
         <v>487</v>
       </c>
-      <c r="M7" s="11">
-        <v>2</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="M7" s="8">
+        <v>2</v>
+      </c>
+      <c r="N7" s="8">
         <v>3.2</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="8">
         <v>947</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="8">
         <v>939</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="8">
         <v>955</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="8">
         <v>946</v>
       </c>
     </row>
@@ -25658,26 +25642,26 @@
       <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="11">
+      <c r="K8" s="27"/>
+      <c r="L8" s="8">
         <v>528</v>
       </c>
-      <c r="M8" s="11">
-        <v>2</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="8">
         <v>3.2</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="8">
         <v>955</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="8">
         <v>964</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="8">
         <v>965</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="8">
         <v>1057</v>
       </c>
     </row>
@@ -25691,26 +25675,26 @@
       <c r="C9" s="1">
         <v>2.6</v>
       </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="11">
+      <c r="K9" s="27"/>
+      <c r="L9" s="8">
         <v>449</v>
       </c>
-      <c r="M9" s="11">
-        <v>1</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
         <v>2.6</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="8">
         <v>938</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="8">
         <v>946</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="8">
         <v>960</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="8">
         <v>1015</v>
       </c>
       <c r="V9" s="1">
@@ -25754,26 +25738,26 @@
       <c r="C10" s="1">
         <v>2.4</v>
       </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="11">
+      <c r="K10" s="27"/>
+      <c r="L10" s="8">
         <v>470</v>
       </c>
-      <c r="M10" s="11">
-        <v>1</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
         <v>2.5</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="8">
         <v>938</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="8">
         <v>955</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="8">
         <v>960</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="8">
         <v>1015</v>
       </c>
     </row>
@@ -25787,26 +25771,26 @@
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="11">
+      <c r="K11" s="27"/>
+      <c r="L11" s="8">
         <v>538</v>
       </c>
-      <c r="M11" s="11">
-        <v>2</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="M11" s="8">
+        <v>2</v>
+      </c>
+      <c r="N11" s="8">
         <v>2.4</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="8">
         <v>955</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="8">
         <v>964</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="8">
         <v>1047</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="8">
         <v>1069</v>
       </c>
     </row>
@@ -25820,26 +25804,26 @@
       <c r="C12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="11">
+      <c r="K12" s="27"/>
+      <c r="L12" s="8">
         <v>507</v>
       </c>
-      <c r="M12" s="11">
-        <v>2</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="M12" s="8">
+        <v>2</v>
+      </c>
+      <c r="N12" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="8">
         <v>955</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="8">
         <v>946</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="8">
         <v>955</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="8">
         <v>964</v>
       </c>
     </row>
@@ -25853,26 +25837,26 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11">
+      <c r="K13" s="27"/>
+      <c r="L13" s="8">
         <v>297</v>
       </c>
-      <c r="M13" s="11">
-        <v>1</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
         <v>1.8</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="8">
         <v>856</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="8">
         <v>1060</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="8">
         <v>938</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="8">
         <v>955</v>
       </c>
     </row>
@@ -25886,26 +25870,26 @@
       <c r="C14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="11">
+      <c r="K14" s="27"/>
+      <c r="L14" s="8">
         <v>476</v>
       </c>
-      <c r="M14" s="11">
-        <v>1</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
         <v>1.7</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="8">
         <v>938</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="8">
         <v>955</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="8">
         <v>999</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="8">
         <v>933</v>
       </c>
     </row>
@@ -25919,26 +25903,26 @@
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15" s="9"/>
-      <c r="L15" s="11">
+      <c r="K15" s="27"/>
+      <c r="L15" s="8">
         <v>269</v>
       </c>
-      <c r="M15" s="11">
-        <v>1</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
         <v>1.2</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="8">
         <v>856</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="8">
         <v>933</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="8">
         <v>938</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="8">
         <v>955</v>
       </c>
     </row>
@@ -25952,26 +25936,26 @@
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="11">
+      <c r="K16" s="27"/>
+      <c r="L16" s="8">
         <v>448</v>
       </c>
-      <c r="M16" s="11">
-        <v>1</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
         <v>1.2</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="8">
         <v>938</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="8">
         <v>946</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="8">
         <v>959</v>
       </c>
-      <c r="R16" s="11">
+      <c r="R16" s="8">
         <v>895</v>
       </c>
     </row>
@@ -25985,383 +25969,383 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="11">
+      <c r="K17" s="27"/>
+      <c r="L17" s="8">
         <v>542</v>
       </c>
-      <c r="M17" s="11">
-        <v>1</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="8">
         <v>955</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="8">
         <v>964</v>
       </c>
-      <c r="Q17" s="11">
+      <c r="Q17" s="8">
         <v>1041</v>
       </c>
-      <c r="R17" s="11">
+      <c r="R17" s="8">
         <v>963</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="9"/>
-      <c r="L18" s="11">
+      <c r="K18" s="27"/>
+      <c r="L18" s="8">
         <v>539</v>
       </c>
-      <c r="M18" s="11">
-        <v>1</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="8">
         <v>955</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="8">
         <v>964</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="8">
         <v>1057</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="8">
         <v>1010</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="9"/>
-      <c r="L19" s="11">
+      <c r="K19" s="27"/>
+      <c r="L19" s="8">
         <v>272</v>
       </c>
-      <c r="M19" s="11">
-        <v>1</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="8">
         <v>856</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="8">
         <v>933</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="Q19" s="8">
         <v>955</v>
       </c>
-      <c r="R19" s="11">
+      <c r="R19" s="8">
         <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="9"/>
-      <c r="L20" s="11">
+      <c r="K20" s="27"/>
+      <c r="L20" s="8">
         <v>541</v>
       </c>
-      <c r="M20" s="11">
-        <v>1</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="8">
         <v>955</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="8">
         <v>964</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q20" s="8">
         <v>1069</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R20" s="8">
         <v>1041</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="9"/>
-      <c r="L21" s="11">
+      <c r="K21" s="27"/>
+      <c r="L21" s="8">
         <v>353</v>
       </c>
-      <c r="M21" s="11">
-        <v>1</v>
-      </c>
-      <c r="N21" s="11">
-        <v>1</v>
-      </c>
-      <c r="O21" s="11">
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
         <v>933</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="8">
         <v>955</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q21" s="8">
         <v>955</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="8">
         <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="9"/>
-      <c r="L22" s="11">
+      <c r="K22" s="27"/>
+      <c r="L22" s="8">
         <v>468</v>
       </c>
-      <c r="M22" s="11">
-        <v>1</v>
-      </c>
-      <c r="N22" s="11">
-        <v>1</v>
-      </c>
-      <c r="O22" s="11">
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1</v>
+      </c>
+      <c r="O22" s="8">
         <v>938</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="8">
         <v>955</v>
       </c>
-      <c r="Q22" s="11">
+      <c r="Q22" s="8">
         <v>955</v>
       </c>
-      <c r="R22" s="11">
+      <c r="R22" s="8">
         <v>964</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L23" s="8">
         <v>638</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11">
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8">
         <v>999</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="8">
         <v>896</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q23" s="8">
         <v>1060</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R23" s="8">
         <v>897</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="9"/>
-      <c r="L24" s="11">
+      <c r="K24" s="27"/>
+      <c r="L24" s="8">
         <v>529</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11">
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8">
         <v>955</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="8">
         <v>964</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q24" s="8">
         <v>976</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R24" s="8">
         <v>979</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="9"/>
-      <c r="L25" s="11">
+      <c r="K25" s="27"/>
+      <c r="L25" s="8">
         <v>467</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11">
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8">
         <v>938</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="8">
         <v>955</v>
       </c>
-      <c r="Q25" s="11">
+      <c r="Q25" s="8">
         <v>955</v>
       </c>
-      <c r="R25" s="11">
+      <c r="R25" s="8">
         <v>946</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="9"/>
-      <c r="L26" s="11">
+      <c r="K26" s="27"/>
+      <c r="L26" s="8">
         <v>446</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11">
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8">
         <v>938</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="8">
         <v>946</v>
       </c>
-      <c r="Q26" s="11">
+      <c r="Q26" s="8">
         <v>955</v>
       </c>
-      <c r="R26" s="11">
+      <c r="R26" s="8">
         <v>946</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="9"/>
-      <c r="L27" s="11">
+      <c r="K27" s="27"/>
+      <c r="L27" s="8">
         <v>444</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11">
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8">
         <v>938</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="8">
         <v>946</v>
       </c>
-      <c r="Q27" s="11">
+      <c r="Q27" s="8">
         <v>938</v>
       </c>
-      <c r="R27" s="11">
+      <c r="R27" s="8">
         <v>955</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="9"/>
-      <c r="L28" s="11">
+      <c r="K28" s="27"/>
+      <c r="L28" s="8">
         <v>377</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11">
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8">
         <v>933</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="8">
         <v>959</v>
       </c>
-      <c r="Q28" s="11">
+      <c r="Q28" s="8">
         <v>955</v>
       </c>
-      <c r="R28" s="11">
+      <c r="R28" s="8">
         <v>946</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="9"/>
-      <c r="L29" s="11">
+      <c r="K29" s="27"/>
+      <c r="L29" s="8">
         <v>375</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11">
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8">
         <v>933</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="8">
         <v>959</v>
       </c>
-      <c r="Q29" s="11">
+      <c r="Q29" s="8">
         <v>938</v>
       </c>
-      <c r="R29" s="11">
+      <c r="R29" s="8">
         <v>955</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K30" s="9"/>
-      <c r="L30" s="11">
+      <c r="K30" s="27"/>
+      <c r="L30" s="8">
         <v>326</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11">
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8">
         <v>933</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="8">
         <v>895</v>
       </c>
-      <c r="Q30" s="11">
+      <c r="Q30" s="8">
         <v>955</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="8">
         <v>946</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K31" s="9"/>
-      <c r="L31" s="11">
+      <c r="K31" s="27"/>
+      <c r="L31" s="8">
         <v>324</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11">
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8">
         <v>933</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="8">
         <v>895</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q31" s="8">
         <v>933</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="8">
         <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="9"/>
-      <c r="L32" s="11">
+      <c r="K32" s="27"/>
+      <c r="L32" s="8">
         <v>320</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11">
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8">
         <v>933</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="8">
         <v>895</v>
       </c>
-      <c r="Q32" s="11">
+      <c r="Q32" s="8">
         <v>933</v>
       </c>
-      <c r="R32" s="11">
+      <c r="R32" s="8">
         <v>959</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="7"/>
+      <c r="K33" s="6"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="7"/>
+      <c r="K34" s="6"/>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="7"/>
+      <c r="K35" s="6"/>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="7"/>
+      <c r="K36" s="6"/>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="7"/>
+      <c r="K37" s="6"/>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="7"/>
+      <c r="K38" s="6"/>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="7"/>
+      <c r="K39" s="6"/>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="7"/>
+      <c r="K40" s="6"/>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="7"/>
+      <c r="K41" s="6"/>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="7"/>
+      <c r="K42" s="6"/>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="7"/>
+      <c r="K43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -26377,8 +26361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4C73E-833A-4410-9019-FF849DCE3D9B}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26396,291 +26380,315 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="17">
         <v>5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>896</v>
       </c>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>897</v>
       </c>
-      <c r="F2" s="11" t="str">
+      <c r="F2" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>8.5</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="11">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="11">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99969019000000003</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="18">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
+      <c r="L2" t="str">
+        <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
+        <v>896-897</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="23">
+      <c r="A3" s="28"/>
+      <c r="B3" s="17">
         <v>13</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>938</v>
       </c>
-      <c r="D3" s="11" t="str">
+      <c r="D3" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>959</v>
       </c>
-      <c r="F3" s="11" t="str">
+      <c r="F3" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="11">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="11">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99932162999999996</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="18">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
+      <c r="L3" t="str">
+        <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
+        <v>938-959</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="23">
+      <c r="A4" s="28"/>
+      <c r="B4" s="17">
         <v>24</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>995</v>
       </c>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>979</v>
       </c>
-      <c r="F4" s="11" t="str">
+      <c r="F4" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="11">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99845779999999995</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="18">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
+      <c r="L4" t="str">
+        <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
+        <v>995-979</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="23">
+      <c r="A5" s="28"/>
+      <c r="B5" s="17">
         <v>20</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>964</v>
       </c>
-      <c r="D5" s="11" t="str">
+      <c r="D5" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>976</v>
       </c>
-      <c r="F5" s="11" t="str">
+      <c r="F5" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>1.4</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="11">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="11">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99961253000000005</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="18">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
+      <c r="L5" t="str">
+        <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
+        <v>964-976</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="23">
+      <c r="A6" s="28"/>
+      <c r="B6" s="17">
         <v>23</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>995</v>
       </c>
-      <c r="D6" s="15" t="str">
+      <c r="D6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>ITA-----0425</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>964</v>
       </c>
-      <c r="F6" s="15" t="str">
+      <c r="F6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99874719999999995</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="18">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
+      <c r="L6" t="str">
+        <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
+        <v>995-964</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="17">
         <v>17</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>955</v>
       </c>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>979</v>
       </c>
-      <c r="F7" s="11" t="str">
+      <c r="F7" s="8" t="str">
         <f>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="14">
+      <c r="G7" s="8"/>
+      <c r="H7" s="11">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99873540000000005</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="18">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
+      <c r="L7" t="str">
+        <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
+        <v>955-979</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21">
         <f>1-Tabela6[[#Totals],[P]]</f>
         <v>5.4236181757127966E-3</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="21">
         <f>PRODUCT(Tabela6[P])</f>
         <v>0.9945763818242872</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="22">
         <f>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H10" t="s">
-        <v>111</v>
-      </c>
-      <c r="I10">
+      <c r="H10" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="24">
         <f>PRODUCT(Tabela6[P],Tabela14[P Eq])</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="25">
         <f>I10</f>
         <v>0.9945472624124081</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="H11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11">
+      <c r="H11" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="I11" s="24">
         <f>1-I10</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="25">
         <f>I11</f>
         <v>5.4527375875919049E-3</v>
       </c>
@@ -26711,7 +26719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -26737,1828 +26745,1828 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="N1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="8">
         <v>509</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="8">
         <v>955</v>
       </c>
-      <c r="D2" s="10" t="str">
+      <c r="D2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="8">
         <v>946</v>
       </c>
-      <c r="F2" s="10" t="str">
+      <c r="F2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="8">
         <v>9.6</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="8">
         <v>960</v>
       </c>
-      <c r="J2" s="10" t="str">
+      <c r="J2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K2" s="11">
+      <c r="K2" s="8">
         <v>1015</v>
       </c>
-      <c r="L2" s="10" t="str">
+      <c r="L2" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="7">
         <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O2" s="13">
+      <c r="O2" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11">
+      <c r="A3" s="29"/>
+      <c r="B3" s="8">
         <v>517</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>955</v>
       </c>
-      <c r="D3" s="10" t="str">
+      <c r="D3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>946</v>
       </c>
-      <c r="F3" s="10" t="str">
+      <c r="F3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="8">
         <v>5.5</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="7">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="8">
         <v>1010</v>
       </c>
-      <c r="J3" s="10" t="str">
+      <c r="J3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="8">
         <v>947</v>
       </c>
-      <c r="L3" s="10" t="str">
+      <c r="L3" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="7">
         <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
-      <c r="B4" s="11">
+      <c r="B4" s="8">
         <v>508</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>955</v>
       </c>
-      <c r="D4" s="10" t="str">
+      <c r="D4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>946</v>
       </c>
-      <c r="F4" s="10" t="str">
+      <c r="F4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="8">
         <v>5.2</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="7">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="8">
         <v>959</v>
       </c>
-      <c r="J4" s="10" t="str">
+      <c r="J4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="8">
         <v>895</v>
       </c>
-      <c r="L4" s="10" t="str">
+      <c r="L4" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="7">
         <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O4" s="13">
+      <c r="O4" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
-      <c r="B5" s="11">
+      <c r="B5" s="8">
         <v>352</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>933</v>
       </c>
-      <c r="D5" s="10" t="str">
+      <c r="D5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>955</v>
       </c>
-      <c r="F5" s="10" t="str">
+      <c r="F5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="7">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="8">
         <v>955</v>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="8">
         <v>946</v>
       </c>
-      <c r="L5" s="10" t="str">
+      <c r="L5" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="7">
         <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>349</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>933</v>
       </c>
-      <c r="D6" s="10" t="str">
+      <c r="D6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>955</v>
       </c>
-      <c r="F6" s="10" t="str">
+      <c r="F6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="8">
         <v>3.5</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="7">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="8">
         <v>938</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="8">
         <v>946</v>
       </c>
-      <c r="L6" s="10" t="str">
+      <c r="L6" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="7">
         <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N6" s="10">
+      <c r="N6" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="11">
+      <c r="B7" s="8">
         <v>487</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>947</v>
       </c>
-      <c r="D7" s="10" t="str">
+      <c r="D7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>939</v>
       </c>
-      <c r="F7" s="10" t="str">
+      <c r="F7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC230</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="8">
         <v>3.2</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="7">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.3626000000000001E-4</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="8">
         <v>955</v>
       </c>
-      <c r="J7" s="10" t="str">
+      <c r="J7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="8">
         <v>946</v>
       </c>
-      <c r="L7" s="10" t="str">
+      <c r="L7" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="7">
         <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.3626000000000001E-4</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.1307078760000001E-7</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999988692921238</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="11">
+      <c r="B8" s="8">
         <v>528</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>955</v>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>964</v>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="8">
         <v>3.2</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="7">
         <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="8">
         <v>965</v>
       </c>
-      <c r="J8" s="10" t="str">
+      <c r="J8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS230</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="8">
         <v>1057</v>
       </c>
-      <c r="L8" s="10" t="str">
+      <c r="L8" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N8" s="10">
+      <c r="N8" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="11">
+      <c r="B9" s="8">
         <v>449</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>938</v>
       </c>
-      <c r="D9" s="10" t="str">
+      <c r="D9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>946</v>
       </c>
-      <c r="F9" s="10" t="str">
+      <c r="F9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="8">
         <v>2.6</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="7">
         <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="8">
         <v>960</v>
       </c>
-      <c r="J9" s="10" t="str">
+      <c r="J9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="8">
         <v>1015</v>
       </c>
-      <c r="L9" s="10" t="str">
+      <c r="L9" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="7">
         <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N9" s="10">
+      <c r="N9" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
-      <c r="B10" s="11">
+      <c r="B10" s="8">
         <v>470</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>938</v>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>955</v>
       </c>
-      <c r="F10" s="10" t="str">
+      <c r="F10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="8">
         <v>2.5</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="7">
         <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="8">
         <v>960</v>
       </c>
-      <c r="J10" s="10" t="str">
+      <c r="J10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR230</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="8">
         <v>1015</v>
       </c>
-      <c r="L10" s="10" t="str">
+      <c r="L10" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="7">
         <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N10" s="10">
+      <c r="N10" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
-      <c r="B11" s="11">
+      <c r="B11" s="8">
         <v>538</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="8">
         <v>955</v>
       </c>
-      <c r="D11" s="10" t="str">
+      <c r="D11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="8">
         <v>964</v>
       </c>
-      <c r="F11" s="10" t="str">
+      <c r="F11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="8">
         <v>2.4</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="7">
         <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="8">
         <v>1047</v>
       </c>
-      <c r="J11" s="10" t="str">
+      <c r="J11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SOSORIO-230</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="8">
         <v>1069</v>
       </c>
-      <c r="L11" s="10" t="str">
+      <c r="L11" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>XANXER-SC230</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="7">
         <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N11" s="10">
+      <c r="N11" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
-      <c r="B12" s="11">
+      <c r="B12" s="8">
         <v>507</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="8">
         <v>955</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="8">
         <v>946</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="8">
         <v>955</v>
       </c>
-      <c r="J12" s="10" t="str">
+      <c r="J12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="8">
         <v>964</v>
       </c>
-      <c r="L12" s="10" t="str">
+      <c r="L12" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M12" s="10">
+      <c r="M12" s="7">
         <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N12" s="10">
+      <c r="N12" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>297</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>856</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="8">
         <v>1060</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="8">
         <v>1.8</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="7">
         <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.9751000000000002E-4</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="8">
         <v>938</v>
       </c>
-      <c r="J13" s="10" t="str">
+      <c r="J13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="8">
         <v>955</v>
       </c>
-      <c r="L13" s="10" t="str">
+      <c r="L13" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="7">
         <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.9751000000000002E-4</v>
       </c>
-      <c r="N13" s="10">
+      <c r="N13" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>8.8512200100000011E-8</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999991148779988</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
-      <c r="B14" s="11">
+      <c r="B14" s="8">
         <v>476</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="8">
         <v>938</v>
       </c>
-      <c r="D14" s="10" t="str">
+      <c r="D14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="8">
         <v>955</v>
       </c>
-      <c r="F14" s="10" t="str">
+      <c r="F14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="8">
         <v>1.7</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="7">
         <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="8">
         <v>999</v>
       </c>
-      <c r="J14" s="10" t="str">
+      <c r="J14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="8">
         <v>933</v>
       </c>
-      <c r="L14" s="10" t="str">
+      <c r="L14" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M14" s="7">
         <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N14" s="10">
+      <c r="N14" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="30"/>
-      <c r="B15" s="11">
+      <c r="B15" s="8">
         <v>269</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <v>856</v>
       </c>
-      <c r="D15" s="10" t="str">
+      <c r="D15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <v>933</v>
       </c>
-      <c r="F15" s="10" t="str">
+      <c r="F15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <v>1.2</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="7">
         <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="8">
         <v>938</v>
       </c>
-      <c r="J15" s="10" t="str">
+      <c r="J15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="8">
         <v>955</v>
       </c>
-      <c r="L15" s="10" t="str">
+      <c r="L15" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M15" s="10">
+      <c r="M15" s="7">
         <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="30"/>
-      <c r="B16" s="11">
+      <c r="B16" s="8">
         <v>448</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="8">
         <v>938</v>
       </c>
-      <c r="D16" s="10" t="str">
+      <c r="D16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <v>946</v>
       </c>
-      <c r="F16" s="10" t="str">
+      <c r="F16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="8">
         <v>1.2</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="7">
         <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="8">
         <v>959</v>
       </c>
-      <c r="J16" s="10" t="str">
+      <c r="J16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="8">
         <v>895</v>
       </c>
-      <c r="L16" s="10" t="str">
+      <c r="L16" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M16" s="10">
+      <c r="M16" s="7">
         <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N16" s="10">
+      <c r="N16" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="30"/>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>542</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>955</v>
       </c>
-      <c r="D17" s="10" t="str">
+      <c r="D17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>964</v>
       </c>
-      <c r="F17" s="10" t="str">
+      <c r="F17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="8">
         <v>1041</v>
       </c>
-      <c r="J17" s="10" t="str">
+      <c r="J17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>PFUNDO-RS230</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="8">
         <v>963</v>
       </c>
-      <c r="L17" s="10" t="str">
+      <c r="L17" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>MCLARO-RS230</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="7">
         <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="30"/>
-      <c r="B18" s="11">
+      <c r="B18" s="8">
         <v>539</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <v>955</v>
       </c>
-      <c r="D18" s="10" t="str">
+      <c r="D18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <v>964</v>
       </c>
-      <c r="F18" s="10" t="str">
+      <c r="F18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="7">
         <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="8">
         <v>1057</v>
       </c>
-      <c r="J18" s="10" t="str">
+      <c r="J18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="8">
         <v>1010</v>
       </c>
-      <c r="L18" s="10" t="str">
+      <c r="L18" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="M18" s="10">
+      <c r="M18" s="7">
         <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N18" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
-      <c r="B19" s="11">
+      <c r="B19" s="8">
         <v>272</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="8">
         <v>856</v>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SEGRED-PR525</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <v>933</v>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="7">
         <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="8">
         <v>955</v>
       </c>
-      <c r="J19" s="10" t="str">
+      <c r="J19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K19" s="11">
+      <c r="K19" s="8">
         <v>964</v>
       </c>
-      <c r="L19" s="10" t="str">
+      <c r="L19" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="7">
         <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N19" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <v>541</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <v>955</v>
       </c>
-      <c r="D20" s="10" t="str">
+      <c r="D20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <v>964</v>
       </c>
-      <c r="F20" s="10" t="str">
+      <c r="F20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="7">
         <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="8">
         <v>1069</v>
       </c>
-      <c r="J20" s="10" t="str">
+      <c r="J20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>XANXER-SC230</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K20" s="8">
         <v>1041</v>
       </c>
-      <c r="L20" s="10" t="str">
+      <c r="L20" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>PFUNDO-RS230</v>
       </c>
-      <c r="M20" s="10">
+      <c r="M20" s="7">
         <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N20" s="10">
+      <c r="N20" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O20" s="13">
+      <c r="O20" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
-      <c r="B21" s="11">
+      <c r="B21" s="8">
         <v>353</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="8">
         <v>933</v>
       </c>
-      <c r="D21" s="10" t="str">
+      <c r="D21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <v>955</v>
       </c>
-      <c r="F21" s="10" t="str">
+      <c r="F21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G21" s="11">
-        <v>1</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
         <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="8">
         <v>955</v>
       </c>
-      <c r="J21" s="10" t="str">
+      <c r="J21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="8">
         <v>964</v>
       </c>
-      <c r="L21" s="10" t="str">
+      <c r="L21" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M21" s="10">
+      <c r="M21" s="7">
         <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N21" s="10">
+      <c r="N21" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
-      <c r="B22" s="11">
+      <c r="B22" s="8">
         <v>468</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="8">
         <v>938</v>
       </c>
-      <c r="D22" s="10" t="str">
+      <c r="D22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <v>955</v>
       </c>
-      <c r="F22" s="10" t="str">
+      <c r="F22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G22" s="11">
-        <v>1</v>
-      </c>
-      <c r="H22" s="10">
+      <c r="G22" s="8">
+        <v>1</v>
+      </c>
+      <c r="H22" s="7">
         <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="8">
         <v>955</v>
       </c>
-      <c r="J22" s="10" t="str">
+      <c r="J22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K22" s="11">
+      <c r="K22" s="8">
         <v>964</v>
       </c>
-      <c r="L22" s="10" t="str">
+      <c r="L22" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M22" s="10">
+      <c r="M22" s="7">
         <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N22" s="10">
+      <c r="N22" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="8">
         <v>638</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="8">
         <v>999</v>
       </c>
-      <c r="D23" s="10" t="str">
+      <c r="D23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>IVAIPE-PR525</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <v>896</v>
       </c>
-      <c r="F23" s="10" t="str">
+      <c r="F23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CASCOE-PR525</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="10">
+      <c r="G23" s="8"/>
+      <c r="H23" s="7">
         <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="8">
         <v>1060</v>
       </c>
-      <c r="J23" s="10" t="str">
+      <c r="J23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SSANTI-PR525</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K23" s="8">
         <v>897</v>
       </c>
-      <c r="L23" s="10" t="str">
+      <c r="L23" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="7">
         <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="N23" s="10">
+      <c r="N23" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.0547289999999998E-6</v>
       </c>
-      <c r="O23" s="13">
+      <c r="O23" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999894527099997</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="11">
+      <c r="A24" s="28"/>
+      <c r="B24" s="8">
         <v>529</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="8">
         <v>955</v>
       </c>
-      <c r="D24" s="10" t="str">
+      <c r="D24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <v>964</v>
       </c>
-      <c r="F24" s="10" t="str">
+      <c r="F24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="10">
+      <c r="G24" s="8"/>
+      <c r="H24" s="7">
         <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="8">
         <v>976</v>
       </c>
-      <c r="J24" s="10" t="str">
+      <c r="J24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>GRAVAT-RS525</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K24" s="8">
         <v>979</v>
       </c>
-      <c r="L24" s="10" t="str">
+      <c r="L24" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="7">
         <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N24" s="10">
+      <c r="N24" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="18"/>
-      <c r="B25" s="11">
+      <c r="A25" s="28"/>
+      <c r="B25" s="8">
         <v>467</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="8">
         <v>938</v>
       </c>
-      <c r="D25" s="10" t="str">
+      <c r="D25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <v>955</v>
       </c>
-      <c r="F25" s="10" t="str">
+      <c r="F25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="10">
+      <c r="G25" s="8"/>
+      <c r="H25" s="7">
         <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="8">
         <v>955</v>
       </c>
-      <c r="J25" s="10" t="str">
+      <c r="J25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K25" s="11">
+      <c r="K25" s="8">
         <v>946</v>
       </c>
-      <c r="L25" s="10" t="str">
+      <c r="L25" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="7">
         <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N25" s="10">
+      <c r="N25" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O25" s="13">
+      <c r="O25" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="18"/>
-      <c r="B26" s="11">
+      <c r="A26" s="28"/>
+      <c r="B26" s="8">
         <v>446</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <v>938</v>
       </c>
-      <c r="D26" s="10" t="str">
+      <c r="D26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <v>946</v>
       </c>
-      <c r="F26" s="10" t="str">
+      <c r="F26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10">
+      <c r="G26" s="8"/>
+      <c r="H26" s="7">
         <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="8">
         <v>955</v>
       </c>
-      <c r="J26" s="10" t="str">
+      <c r="J26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K26" s="11">
+      <c r="K26" s="8">
         <v>946</v>
       </c>
-      <c r="L26" s="10" t="str">
+      <c r="L26" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M26" s="10">
+      <c r="M26" s="7">
         <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N26" s="10">
+      <c r="N26" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O26" s="13">
+      <c r="O26" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="18"/>
-      <c r="B27" s="11">
+      <c r="A27" s="28"/>
+      <c r="B27" s="8">
         <v>444</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="8">
         <v>938</v>
       </c>
-      <c r="D27" s="10" t="str">
+      <c r="D27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="8">
         <v>946</v>
       </c>
-      <c r="F27" s="10" t="str">
+      <c r="F27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="10">
+      <c r="G27" s="8"/>
+      <c r="H27" s="7">
         <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="8">
         <v>938</v>
       </c>
-      <c r="J27" s="10" t="str">
+      <c r="J27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K27" s="11">
+      <c r="K27" s="8">
         <v>955</v>
       </c>
-      <c r="L27" s="10" t="str">
+      <c r="L27" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="7">
         <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N27" s="10">
+      <c r="N27" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O27" s="13">
+      <c r="O27" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="18"/>
-      <c r="B28" s="11">
+      <c r="A28" s="28"/>
+      <c r="B28" s="8">
         <v>377</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="8">
         <v>933</v>
       </c>
-      <c r="D28" s="10" t="str">
+      <c r="D28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="8">
         <v>959</v>
       </c>
-      <c r="F28" s="10" t="str">
+      <c r="F28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="10">
+      <c r="G28" s="8"/>
+      <c r="H28" s="7">
         <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="8">
         <v>955</v>
       </c>
-      <c r="J28" s="10" t="str">
+      <c r="J28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K28" s="11">
+      <c r="K28" s="8">
         <v>946</v>
       </c>
-      <c r="L28" s="10" t="str">
+      <c r="L28" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="7">
         <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N28" s="10">
+      <c r="N28" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O28" s="13">
+      <c r="O28" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="11">
+      <c r="A29" s="28"/>
+      <c r="B29" s="8">
         <v>375</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="8">
         <v>933</v>
       </c>
-      <c r="D29" s="10" t="str">
+      <c r="D29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="8">
         <v>959</v>
       </c>
-      <c r="F29" s="10" t="str">
+      <c r="F29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="10">
+      <c r="G29" s="8"/>
+      <c r="H29" s="7">
         <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="8">
         <v>938</v>
       </c>
-      <c r="J29" s="10" t="str">
+      <c r="J29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BLUMEN-SC525</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="8">
         <v>955</v>
       </c>
-      <c r="L29" s="10" t="str">
+      <c r="L29" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="7">
         <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N29" s="10">
+      <c r="N29" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O29" s="13">
+      <c r="O29" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="18"/>
-      <c r="B30" s="11">
+      <c r="A30" s="28"/>
+      <c r="B30" s="8">
         <v>326</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="8">
         <v>933</v>
       </c>
-      <c r="D30" s="10" t="str">
+      <c r="D30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="8">
         <v>895</v>
       </c>
-      <c r="F30" s="10" t="str">
+      <c r="F30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="10">
+      <c r="G30" s="8"/>
+      <c r="H30" s="7">
         <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="8">
         <v>955</v>
       </c>
-      <c r="J30" s="10" t="str">
+      <c r="J30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="8">
         <v>946</v>
       </c>
-      <c r="L30" s="10" t="str">
+      <c r="L30" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M30" s="10">
+      <c r="M30" s="7">
         <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="18"/>
-      <c r="B31" s="11">
+      <c r="A31" s="28"/>
+      <c r="B31" s="8">
         <v>324</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="8">
         <v>933</v>
       </c>
-      <c r="D31" s="10" t="str">
+      <c r="D31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="8">
         <v>895</v>
       </c>
-      <c r="F31" s="10" t="str">
+      <c r="F31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="10">
+      <c r="G31" s="8"/>
+      <c r="H31" s="7">
         <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="8">
         <v>933</v>
       </c>
-      <c r="J31" s="10" t="str">
+      <c r="J31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K31" s="8">
         <v>959</v>
       </c>
-      <c r="L31" s="10" t="str">
+      <c r="L31" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M31" s="10">
+      <c r="M31" s="7">
         <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O31" s="13">
+      <c r="O31" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="18"/>
-      <c r="B32" s="11">
+      <c r="A32" s="28"/>
+      <c r="B32" s="8">
         <v>320</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="8">
         <v>933</v>
       </c>
-      <c r="D32" s="10" t="str">
+      <c r="D32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="8">
         <v>895</v>
       </c>
-      <c r="F32" s="10" t="str">
+      <c r="F32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="10">
+      <c r="G32" s="8"/>
+      <c r="H32" s="7">
         <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="8">
         <v>933</v>
       </c>
-      <c r="J32" s="10" t="str">
+      <c r="J32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="K32" s="11">
+      <c r="K32" s="8">
         <v>959</v>
       </c>
-      <c r="L32" s="10" t="str">
+      <c r="L32" s="7" t="str">
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="7">
         <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="7">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="10">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8">
         <f>1-Tabela14[[#Totals],[P Eq]]</f>
         <v>2.9278205687321979E-5</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="8">
         <f>PRODUCT(Tabela14[P Eq])</f>
         <v>0.99997072179431268</v>
       </c>
-      <c r="P33" s="31">
+      <c r="P33" s="23">
         <f>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</f>
         <v>1</v>
       </c>

--- a/STB32/Confiabilidade.xlsx
+++ b/STB32/Confiabilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\projetos\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728B2DC8-191E-43CA-9907-F07CC9FE8375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557B0B8-3935-438A-80E1-F28FF6F88895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="4" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="662" activeTab="4" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="SegmentaçãodeDados_Barra_PARA">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Circuito">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -44,7 +44,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -611,7 +613,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,6 +668,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -25348,7 +25354,7 @@
       <c r="C2" s="1">
         <v>9.6</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="1">
@@ -25366,7 +25372,7 @@
       <c r="I2" s="1">
         <v>897</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="29" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="8">
@@ -25401,7 +25407,7 @@
       <c r="C3" s="1">
         <v>5.5</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="1">
         <v>13</v>
       </c>
@@ -25417,7 +25423,7 @@
       <c r="I3" s="1">
         <v>959</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="29"/>
       <c r="L3" s="8">
         <v>517</v>
       </c>
@@ -25450,7 +25456,7 @@
       <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="1">
         <v>24</v>
       </c>
@@ -25466,7 +25472,7 @@
       <c r="I4" s="1">
         <v>979</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="29"/>
       <c r="L4" s="8">
         <v>508</v>
       </c>
@@ -25499,7 +25505,7 @@
       <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="1">
         <v>20</v>
       </c>
@@ -25515,7 +25521,7 @@
       <c r="I5" s="1">
         <v>976</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="8">
         <v>352</v>
       </c>
@@ -25548,7 +25554,7 @@
       <c r="C6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="28"/>
       <c r="E6" s="1">
         <v>23</v>
       </c>
@@ -25564,7 +25570,7 @@
       <c r="I6" s="1">
         <v>964</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="29"/>
       <c r="L6" s="8">
         <v>349</v>
       </c>
@@ -25609,7 +25615,7 @@
       <c r="I7" s="1">
         <v>979</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="29"/>
       <c r="L7" s="8">
         <v>487</v>
       </c>
@@ -25642,7 +25648,7 @@
       <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="29"/>
       <c r="L8" s="8">
         <v>528</v>
       </c>
@@ -25675,7 +25681,7 @@
       <c r="C9" s="1">
         <v>2.6</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="8">
         <v>449</v>
       </c>
@@ -25738,7 +25744,7 @@
       <c r="C10" s="1">
         <v>2.4</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="29"/>
       <c r="L10" s="8">
         <v>470</v>
       </c>
@@ -25771,7 +25777,7 @@
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="29"/>
       <c r="L11" s="8">
         <v>538</v>
       </c>
@@ -25804,7 +25810,7 @@
       <c r="C12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="29"/>
       <c r="L12" s="8">
         <v>507</v>
       </c>
@@ -25837,7 +25843,7 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="29"/>
       <c r="L13" s="8">
         <v>297</v>
       </c>
@@ -25870,7 +25876,7 @@
       <c r="C14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="8">
         <v>476</v>
       </c>
@@ -25903,7 +25909,7 @@
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="8">
         <v>269</v>
       </c>
@@ -25936,7 +25942,7 @@
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="8">
         <v>448</v>
       </c>
@@ -25969,7 +25975,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="29"/>
       <c r="L17" s="8">
         <v>542</v>
       </c>
@@ -25993,7 +25999,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="27"/>
+      <c r="K18" s="29"/>
       <c r="L18" s="8">
         <v>539</v>
       </c>
@@ -26017,7 +26023,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="27"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="8">
         <v>272</v>
       </c>
@@ -26041,7 +26047,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="27"/>
+      <c r="K20" s="29"/>
       <c r="L20" s="8">
         <v>541</v>
       </c>
@@ -26065,7 +26071,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="27"/>
+      <c r="K21" s="29"/>
       <c r="L21" s="8">
         <v>353</v>
       </c>
@@ -26089,7 +26095,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="27"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="8">
         <v>468</v>
       </c>
@@ -26113,7 +26119,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="29" t="s">
         <v>104</v>
       </c>
       <c r="L23" s="8">
@@ -26135,7 +26141,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="27"/>
+      <c r="K24" s="29"/>
       <c r="L24" s="8">
         <v>529</v>
       </c>
@@ -26155,7 +26161,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="27"/>
+      <c r="K25" s="29"/>
       <c r="L25" s="8">
         <v>467</v>
       </c>
@@ -26175,7 +26181,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="27"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="8">
         <v>446</v>
       </c>
@@ -26195,7 +26201,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="27"/>
+      <c r="K27" s="29"/>
       <c r="L27" s="8">
         <v>444</v>
       </c>
@@ -26215,7 +26221,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="27"/>
+      <c r="K28" s="29"/>
       <c r="L28" s="8">
         <v>377</v>
       </c>
@@ -26235,7 +26241,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="27"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="8">
         <v>375</v>
       </c>
@@ -26255,7 +26261,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K30" s="27"/>
+      <c r="K30" s="29"/>
       <c r="L30" s="8">
         <v>326</v>
       </c>
@@ -26275,7 +26281,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K31" s="27"/>
+      <c r="K31" s="29"/>
       <c r="L31" s="8">
         <v>324</v>
       </c>
@@ -26295,7 +26301,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="27"/>
+      <c r="K32" s="29"/>
       <c r="L32" s="8">
         <v>320</v>
       </c>
@@ -26359,10 +26365,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4C73E-833A-4410-9019-FF849DCE3D9B}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26377,9 +26383,10 @@
     <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -26411,8 +26418,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="17">
@@ -26451,9 +26458,13 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>896-897</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="M2" s="27">
+        <f>Tabela6[[#This Row],[Q]]</f>
+        <v>3.0980999999999999E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
       <c r="B3" s="17">
         <v>13</v>
       </c>
@@ -26490,9 +26501,13 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>938-959</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="M3" s="27">
+        <f>Tabela6[[#This Row],[Q]]</f>
+        <v>6.7836999999999997E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
       <c r="B4" s="17">
         <v>24</v>
       </c>
@@ -26529,9 +26544,13 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>995-979</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="M4" s="27">
+        <f>Tabela6[[#This Row],[Q]]</f>
+        <v>1.5422000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
       <c r="B5" s="17">
         <v>20</v>
       </c>
@@ -26568,9 +26587,13 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>964-976</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="M5" s="27">
+        <f>Tabela6[[#This Row],[Q]]</f>
+        <v>3.8747E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
       <c r="B6" s="17">
         <v>23</v>
       </c>
@@ -26607,8 +26630,12 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>995-964</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="27">
+        <f>Tabela6[[#This Row],[Q]]</f>
+        <v>1.2528000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>106</v>
       </c>
@@ -26646,8 +26673,12 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>955-979</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="27">
+        <f>Tabela6[[#This Row],[Q]]</f>
+        <v>1.2646000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="19"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -26667,7 +26698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H10" s="24" t="s">
         <v>107</v>
       </c>
@@ -26680,7 +26711,7 @@
         <v>0.9945472624124081</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H11" s="24" t="s">
         <v>108</v>
       </c>
@@ -26693,13 +26724,13 @@
         <v>5.4527375875919049E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K14" s="3"/>
     </row>
   </sheetData>
@@ -26717,10 +26748,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="R32" sqref="R2:S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26741,10 +26772,12 @@
     <col min="14" max="14" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="1"/>
+    <col min="17" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
@@ -26794,8 +26827,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="8">
@@ -26852,9 +26885,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="R2" s="1" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="S2" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>960-1015</v>
+      </c>
+      <c r="T2" s="1">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
       <c r="B3" s="8">
         <v>517</v>
       </c>
@@ -26909,9 +26954,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="R3" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="S3" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>1010-947</v>
+      </c>
+      <c r="T3" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
       <c r="B4" s="8">
         <v>508</v>
       </c>
@@ -26966,9 +27023,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="R4" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="S4" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>959-895</v>
+      </c>
+      <c r="T4" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
       <c r="B5" s="8">
         <v>352</v>
       </c>
@@ -27023,9 +27092,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="R5" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-955</v>
+      </c>
+      <c r="S5" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="T5" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>7.5078759039999993E-7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="32"/>
       <c r="B6" s="8">
         <v>349</v>
       </c>
@@ -27080,9 +27161,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="R6" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-955</v>
+      </c>
+      <c r="S6" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>938-946</v>
+      </c>
+      <c r="T6" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>7.5078759039999993E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="32"/>
       <c r="B7" s="8">
         <v>487</v>
       </c>
@@ -27137,9 +27230,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="R7" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>947-939</v>
+      </c>
+      <c r="S7" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="T7" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.1307078760000001E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
       <c r="B8" s="8">
         <v>528</v>
       </c>
@@ -27194,9 +27299,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="R8" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="S8" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>965-1057</v>
+      </c>
+      <c r="T8" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
       <c r="B9" s="8">
         <v>449</v>
       </c>
@@ -27251,9 +27368,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="R9" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-946</v>
+      </c>
+      <c r="S9" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>960-1015</v>
+      </c>
+      <c r="T9" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
       <c r="B10" s="8">
         <v>470</v>
       </c>
@@ -27308,9 +27437,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="R10" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="S10" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>960-1015</v>
+      </c>
+      <c r="T10" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="32"/>
       <c r="B11" s="8">
         <v>538</v>
       </c>
@@ -27365,9 +27506,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="R11" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="S11" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>1047-1069</v>
+      </c>
+      <c r="T11" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="32"/>
       <c r="B12" s="8">
         <v>507</v>
       </c>
@@ -27422,9 +27575,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="R12" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="S12" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="T12" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.3305622500000001E-6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="32"/>
       <c r="B13" s="8">
         <v>297</v>
       </c>
@@ -27479,9 +27644,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="R13" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>856-1060</v>
+      </c>
+      <c r="S13" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="T13" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>8.8512200100000011E-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="32"/>
       <c r="B14" s="8">
         <v>476</v>
       </c>
@@ -27536,9 +27713,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="R14" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="S14" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>999-933</v>
+      </c>
+      <c r="T14" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
       <c r="B15" s="8">
         <v>269</v>
       </c>
@@ -27593,9 +27782,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="R15" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>856-933</v>
+      </c>
+      <c r="S15" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="T15" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>7.7746168899999996E-8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
       <c r="B16" s="8">
         <v>448</v>
       </c>
@@ -27650,9 +27851,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="R16" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-946</v>
+      </c>
+      <c r="S16" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>959-895</v>
+      </c>
+      <c r="T16" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
       <c r="B17" s="8">
         <v>542</v>
       </c>
@@ -27707,9 +27920,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="R17" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="S17" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>1041-963</v>
+      </c>
+      <c r="T17" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
       <c r="B18" s="8">
         <v>539</v>
       </c>
@@ -27764,9 +27989,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="R18" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="S18" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>1057-1010</v>
+      </c>
+      <c r="T18" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
       <c r="B19" s="8">
         <v>272</v>
       </c>
@@ -27821,9 +28058,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="R19" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>856-933</v>
+      </c>
+      <c r="S19" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="T19" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>7.7746168899999996E-8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
       <c r="B20" s="8">
         <v>541</v>
       </c>
@@ -27878,9 +28127,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="R20" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="S20" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>1069-1041</v>
+      </c>
+      <c r="T20" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
       <c r="B21" s="8">
         <v>353</v>
       </c>
@@ -27935,9 +28196,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="R21" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-955</v>
+      </c>
+      <c r="S21" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="T21" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>7.5078759039999993E-7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
       <c r="B22" s="8">
         <v>468</v>
       </c>
@@ -27992,9 +28265,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="R22" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="S22" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="T22" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="8">
@@ -28049,9 +28334,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="R23" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>999-896</v>
+      </c>
+      <c r="S23" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>1060-897</v>
+      </c>
+      <c r="T23" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.0547289999999998E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="30"/>
       <c r="B24" s="8">
         <v>529</v>
       </c>
@@ -28104,9 +28401,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="R24" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>955-964</v>
+      </c>
+      <c r="S24" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>976-979</v>
+      </c>
+      <c r="T24" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>9.9810090250000007E-7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
       <c r="B25" s="8">
         <v>467</v>
       </c>
@@ -28159,9 +28468,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="R25" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="S25" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="T25" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5388402500000001E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
       <c r="B26" s="8">
         <v>446</v>
       </c>
@@ -28214,9 +28535,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="R26" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-946</v>
+      </c>
+      <c r="S26" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="T26" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="30"/>
       <c r="B27" s="8">
         <v>444</v>
       </c>
@@ -28269,9 +28602,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="R27" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>938-946</v>
+      </c>
+      <c r="S27" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="T27" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.8299572840000001E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="30"/>
       <c r="B28" s="8">
         <v>377</v>
       </c>
@@ -28324,9 +28669,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="R28" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-959</v>
+      </c>
+      <c r="S28" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="T28" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.3354113599999999E-6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="30"/>
       <c r="B29" s="8">
         <v>375</v>
       </c>
@@ -28379,9 +28736,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="R29" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-959</v>
+      </c>
+      <c r="S29" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>938-955</v>
+      </c>
+      <c r="T29" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.3354113599999999E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
       <c r="B30" s="8">
         <v>326</v>
       </c>
@@ -28434,9 +28803,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="R30" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-895</v>
+      </c>
+      <c r="S30" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>955-946</v>
+      </c>
+      <c r="T30" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5818092900000001E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
       <c r="B31" s="8">
         <v>324</v>
       </c>
@@ -28489,9 +28870,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="R31" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-895</v>
+      </c>
+      <c r="S31" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>933-959</v>
+      </c>
+      <c r="T31" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5818092900000001E-6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="30"/>
       <c r="B32" s="8">
         <v>320</v>
       </c>
@@ -28543,6 +28936,18 @@
       <c r="P32" s="10">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
+      </c>
+      <c r="R32" s="26" t="str">
+        <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
+        <v>933-895</v>
+      </c>
+      <c r="S32" s="26" t="str">
+        <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
+        <v>933-959</v>
+      </c>
+      <c r="T32" s="26">
+        <f>Tabela14[[#This Row],[Q Eq]]</f>
+        <v>1.5818092900000001E-6</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">

--- a/STB32/Confiabilidade.xlsx
+++ b/STB32/Confiabilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\projetos\Confiabilidade\STB32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557B0B8-3935-438A-80E1-F28FF6F88895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABAA9D-A00D-4738-AB00-1C6FF31790FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="662" activeTab="4" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="SegmentaçãodeDados_Barra_PARA">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Circuito">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -44,9 +44,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -106,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="110">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -434,17 +432,21 @@
   <si>
     <t>Qtotal</t>
   </si>
+  <si>
+    <t>p</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000000%"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -641,7 +643,6 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -668,9 +669,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,12 +685,173 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1969,29 +2128,21 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
+        <right style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        </right>
+        <top/>
+        <bottom/>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -2052,52 +2203,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2107,129 +2212,6 @@
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -3146,84 +3128,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
   <autoFilter ref="A1:E59" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="77"/>
+    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="76"/>
+    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="75"/>
+    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:E39" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="A1:E39" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:F39" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="A1:F39" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
     <sortCondition ref="A1:A39"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="70"/>
-    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="69">
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="67">
+    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{927D24E1-9E8B-4261-B6B2-69EEC925FD98}" name="p" dataDxfId="4">
+      <calculatedColumnFormula>1-Tabela2[[#This Row],[q]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="H1:L39" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:L39">
     <sortCondition ref="H1:H39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="62">
+    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="62"/>
+    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="61">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="58" dataDxfId="56" totalsRowDxfId="54" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="55" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="54">
   <autoFilter ref="B1:J7" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="48" totalsRowDxfId="47">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="49" totalsRowDxfId="48">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="44" totalsRowDxfId="43">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="40" totalsRowDxfId="39">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="3" totalsRowDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="42">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="41">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="40">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -3233,45 +3218,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="34" dataDxfId="32" headerRowBorderDxfId="33" tableBorderDxfId="31" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
   <autoFilter ref="B1:P32" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</totalsRowFormula>
     </tableColumn>
@@ -23831,8 +23816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF1F68-5056-431B-ACEC-1B889C462C97}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23842,7 +23827,8 @@
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
+    <col min="6" max="6" width="15.5703125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
@@ -23870,6 +23856,9 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="F1" s="31" t="s">
+        <v>109</v>
+      </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
@@ -23904,6 +23893,10 @@
       <c r="E2" s="2">
         <v>2.7882999999999998E-4</v>
       </c>
+      <c r="F2" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99972117000000005</v>
+      </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
@@ -23940,6 +23933,10 @@
       <c r="E3" s="2">
         <v>1.2577000000000001E-3</v>
       </c>
+      <c r="F3" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99874229999999997</v>
+      </c>
       <c r="H3" s="1" t="s">
         <v>6</v>
       </c>
@@ -23976,6 +23973,10 @@
       <c r="E4" s="2">
         <v>8.6647999999999998E-4</v>
       </c>
+      <c r="F4" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99913352</v>
+      </c>
       <c r="H4" s="1" t="s">
         <v>0</v>
       </c>
@@ -24012,6 +24013,10 @@
       <c r="E5" s="2">
         <v>1.1555999999999999E-3</v>
       </c>
+      <c r="F5" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99884439999999997</v>
+      </c>
       <c r="H5" s="1" t="s">
         <v>9</v>
       </c>
@@ -24048,6 +24053,10 @@
       <c r="E6" s="2">
         <v>8.5125999999999995E-4</v>
       </c>
+      <c r="F6" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99914873999999998</v>
+      </c>
       <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
@@ -24084,6 +24093,10 @@
       <c r="E7" s="2">
         <v>1.6475999999999999E-4</v>
       </c>
+      <c r="F7" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99983524000000001</v>
+      </c>
       <c r="H7" s="1" t="s">
         <v>9</v>
       </c>
@@ -24120,6 +24133,10 @@
       <c r="E8" s="2">
         <v>4.2778E-4</v>
       </c>
+      <c r="F8" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99957222000000001</v>
+      </c>
       <c r="H8" s="1" t="s">
         <v>13</v>
       </c>
@@ -24156,6 +24173,10 @@
       <c r="E9" s="2">
         <v>1.1535E-3</v>
       </c>
+      <c r="F9" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99884649999999997</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>0</v>
       </c>
@@ -24192,6 +24213,10 @@
       <c r="E10" s="2">
         <v>1.2405000000000001E-3</v>
       </c>
+      <c r="F10" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99875950000000002</v>
+      </c>
       <c r="H10" s="1" t="s">
         <v>0</v>
       </c>
@@ -24228,6 +24253,10 @@
       <c r="E11" s="2">
         <v>6.7836999999999997E-4</v>
       </c>
+      <c r="F11" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99932162999999996</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>9</v>
       </c>
@@ -24264,6 +24293,10 @@
       <c r="E12" s="2">
         <v>3.0980999999999999E-4</v>
       </c>
+      <c r="F12" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99969019000000003</v>
+      </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
@@ -24300,6 +24333,10 @@
       <c r="E13" s="2">
         <v>1.0269999999999999E-3</v>
       </c>
+      <c r="F13" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.998973</v>
+      </c>
       <c r="H13" s="1" t="s">
         <v>8</v>
       </c>
@@ -24336,6 +24373,10 @@
       <c r="E14" s="2">
         <v>9.9905000000000002E-4</v>
       </c>
+      <c r="F14" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99900095</v>
+      </c>
       <c r="H14" s="1" t="s">
         <v>0</v>
       </c>
@@ -24372,6 +24413,10 @@
       <c r="E15" s="2">
         <v>3.8747E-4</v>
       </c>
+      <c r="F15" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99961253000000005</v>
+      </c>
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
@@ -24408,6 +24453,10 @@
       <c r="E16" s="2">
         <v>1.2528000000000001E-3</v>
       </c>
+      <c r="F16" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99874719999999995</v>
+      </c>
       <c r="H16" s="1" t="s">
         <v>4</v>
       </c>
@@ -24444,6 +24493,10 @@
       <c r="E17" s="2">
         <v>1.2646000000000001E-3</v>
       </c>
+      <c r="F17" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99873540000000005</v>
+      </c>
       <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
@@ -24480,6 +24533,10 @@
       <c r="E18" s="2">
         <v>1.9623000000000001E-4</v>
       </c>
+      <c r="F18" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99980376999999998</v>
+      </c>
       <c r="H18" s="1" t="s">
         <v>5</v>
       </c>
@@ -24516,6 +24573,10 @@
       <c r="E19" s="2">
         <v>1.4509000000000001E-4</v>
       </c>
+      <c r="F19" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99985491000000004</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>27</v>
       </c>
@@ -24552,6 +24613,10 @@
       <c r="E20" s="2">
         <v>1.5422000000000001E-3</v>
       </c>
+      <c r="F20" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99845779999999995</v>
+      </c>
       <c r="H20" s="1" t="s">
         <v>27</v>
       </c>
@@ -24588,6 +24653,10 @@
       <c r="E21" s="2">
         <v>3.1766999999999999E-4</v>
       </c>
+      <c r="F21" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99968232999999995</v>
+      </c>
       <c r="H21" s="1" t="s">
         <v>5</v>
       </c>
@@ -24624,6 +24693,10 @@
       <c r="E22" s="2">
         <v>9.1901999999999999E-4</v>
       </c>
+      <c r="F22" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99908098000000001</v>
+      </c>
       <c r="H22" s="1" t="s">
         <v>7</v>
       </c>
@@ -24660,6 +24733,10 @@
       <c r="E23" s="2">
         <v>8.2081000000000005E-4</v>
       </c>
+      <c r="F23" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99917918999999999</v>
+      </c>
       <c r="H23" s="1" t="s">
         <v>7</v>
       </c>
@@ -24696,6 +24773,10 @@
       <c r="E24" s="2">
         <v>4.4252000000000001E-4</v>
       </c>
+      <c r="F24" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99955748</v>
+      </c>
       <c r="H24" s="1" t="s">
         <v>7</v>
       </c>
@@ -24732,6 +24813,10 @@
       <c r="E25" s="2">
         <v>2.9751000000000002E-4</v>
       </c>
+      <c r="F25" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99970249</v>
+      </c>
       <c r="H25" s="1" t="s">
         <v>7</v>
       </c>
@@ -24768,6 +24853,10 @@
       <c r="E26" s="2">
         <v>6.5850000000000001E-4</v>
       </c>
+      <c r="F26" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99934149999999999</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>12</v>
       </c>
@@ -24804,6 +24893,10 @@
       <c r="E27" s="2">
         <v>4.2973000000000002E-4</v>
       </c>
+      <c r="F27" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99957026999999998</v>
+      </c>
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
@@ -24840,6 +24933,10 @@
       <c r="E28" s="2">
         <v>3.3626000000000001E-4</v>
       </c>
+      <c r="F28" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99966374000000002</v>
+      </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
       </c>
@@ -24876,6 +24973,10 @@
       <c r="E29" s="2">
         <v>3.4675999999999999E-4</v>
       </c>
+      <c r="F29" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99965324</v>
+      </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
@@ -24912,6 +25013,10 @@
       <c r="E30" s="2">
         <v>1.9550000000000001E-4</v>
       </c>
+      <c r="F30" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99980449999999998</v>
+      </c>
       <c r="H30" s="1" t="s">
         <v>18</v>
       </c>
@@ -24948,6 +25053,10 @@
       <c r="E31" s="2">
         <v>2.1504E-4</v>
       </c>
+      <c r="F31" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99978495999999994</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
@@ -24984,6 +25093,10 @@
       <c r="E32" s="2">
         <v>2.7589E-5</v>
       </c>
+      <c r="F32" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99997241100000001</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>21</v>
       </c>
@@ -25020,6 +25133,10 @@
       <c r="E33" s="2">
         <v>1.4266999999999999E-4</v>
       </c>
+      <c r="F33" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99985732999999999</v>
+      </c>
       <c r="H33" s="1" t="s">
         <v>24</v>
       </c>
@@ -25056,6 +25173,10 @@
       <c r="E34" s="2">
         <v>5.6384999999999996E-4</v>
       </c>
+      <c r="F34" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99943614999999997</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>26</v>
       </c>
@@ -25092,6 +25213,10 @@
       <c r="E35" s="2">
         <v>2.6751999999999999E-4</v>
       </c>
+      <c r="F35" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99973248000000003</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>18</v>
       </c>
@@ -25128,6 +25253,10 @@
       <c r="E36" s="2">
         <v>1.2668E-4</v>
       </c>
+      <c r="F36" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99987331999999995</v>
+      </c>
       <c r="H36" s="1" t="s">
         <v>26</v>
       </c>
@@ -25164,6 +25293,10 @@
       <c r="E37" s="2">
         <v>6.1218999999999998E-4</v>
       </c>
+      <c r="F37" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99938780999999999</v>
+      </c>
       <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
@@ -25200,6 +25333,10 @@
       <c r="E38" s="2">
         <v>2.1210000000000001E-4</v>
       </c>
+      <c r="F38" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99978789999999995</v>
+      </c>
       <c r="H38" s="1" t="s">
         <v>29</v>
       </c>
@@ -25235,6 +25372,10 @@
       </c>
       <c r="E39" s="2">
         <v>4.3374E-4</v>
+      </c>
+      <c r="F39" s="31">
+        <f>1-Tabela2[[#This Row],[q]]</f>
+        <v>0.99956626000000004</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>29</v>
@@ -25354,7 +25495,7 @@
       <c r="C2" s="1">
         <v>9.6</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="1">
@@ -25372,7 +25513,7 @@
       <c r="I2" s="1">
         <v>897</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="K2" s="27" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="8">
@@ -25407,7 +25548,7 @@
       <c r="C3" s="1">
         <v>5.5</v>
       </c>
-      <c r="D3" s="28"/>
+      <c r="D3" s="26"/>
       <c r="E3" s="1">
         <v>13</v>
       </c>
@@ -25423,7 +25564,7 @@
       <c r="I3" s="1">
         <v>959</v>
       </c>
-      <c r="K3" s="29"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="8">
         <v>517</v>
       </c>
@@ -25456,7 +25597,7 @@
       <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="28"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="1">
         <v>24</v>
       </c>
@@ -25472,7 +25613,7 @@
       <c r="I4" s="1">
         <v>979</v>
       </c>
-      <c r="K4" s="29"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="8">
         <v>508</v>
       </c>
@@ -25505,7 +25646,7 @@
       <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="28"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="1">
         <v>20</v>
       </c>
@@ -25521,7 +25662,7 @@
       <c r="I5" s="1">
         <v>976</v>
       </c>
-      <c r="K5" s="29"/>
+      <c r="K5" s="27"/>
       <c r="L5" s="8">
         <v>352</v>
       </c>
@@ -25554,7 +25695,7 @@
       <c r="C6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="28"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="1">
         <v>23</v>
       </c>
@@ -25570,7 +25711,7 @@
       <c r="I6" s="1">
         <v>964</v>
       </c>
-      <c r="K6" s="29"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="8">
         <v>349</v>
       </c>
@@ -25615,7 +25756,7 @@
       <c r="I7" s="1">
         <v>979</v>
       </c>
-      <c r="K7" s="29"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="8">
         <v>487</v>
       </c>
@@ -25648,7 +25789,7 @@
       <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="K8" s="29"/>
+      <c r="K8" s="27"/>
       <c r="L8" s="8">
         <v>528</v>
       </c>
@@ -25681,7 +25822,7 @@
       <c r="C9" s="1">
         <v>2.6</v>
       </c>
-      <c r="K9" s="29"/>
+      <c r="K9" s="27"/>
       <c r="L9" s="8">
         <v>449</v>
       </c>
@@ -25744,7 +25885,7 @@
       <c r="C10" s="1">
         <v>2.4</v>
       </c>
-      <c r="K10" s="29"/>
+      <c r="K10" s="27"/>
       <c r="L10" s="8">
         <v>470</v>
       </c>
@@ -25777,7 +25918,7 @@
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="29"/>
+      <c r="K11" s="27"/>
       <c r="L11" s="8">
         <v>538</v>
       </c>
@@ -25810,7 +25951,7 @@
       <c r="C12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="29"/>
+      <c r="K12" s="27"/>
       <c r="L12" s="8">
         <v>507</v>
       </c>
@@ -25843,7 +25984,7 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="29"/>
+      <c r="K13" s="27"/>
       <c r="L13" s="8">
         <v>297</v>
       </c>
@@ -25876,7 +26017,7 @@
       <c r="C14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="29"/>
+      <c r="K14" s="27"/>
       <c r="L14" s="8">
         <v>476</v>
       </c>
@@ -25909,7 +26050,7 @@
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15" s="29"/>
+      <c r="K15" s="27"/>
       <c r="L15" s="8">
         <v>269</v>
       </c>
@@ -25942,7 +26083,7 @@
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K16" s="29"/>
+      <c r="K16" s="27"/>
       <c r="L16" s="8">
         <v>448</v>
       </c>
@@ -25975,7 +26116,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="27"/>
       <c r="L17" s="8">
         <v>542</v>
       </c>
@@ -25999,7 +26140,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="29"/>
+      <c r="K18" s="27"/>
       <c r="L18" s="8">
         <v>539</v>
       </c>
@@ -26023,7 +26164,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="29"/>
+      <c r="K19" s="27"/>
       <c r="L19" s="8">
         <v>272</v>
       </c>
@@ -26047,7 +26188,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="29"/>
+      <c r="K20" s="27"/>
       <c r="L20" s="8">
         <v>541</v>
       </c>
@@ -26071,7 +26212,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="29"/>
+      <c r="K21" s="27"/>
       <c r="L21" s="8">
         <v>353</v>
       </c>
@@ -26095,7 +26236,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="29"/>
+      <c r="K22" s="27"/>
       <c r="L22" s="8">
         <v>468</v>
       </c>
@@ -26119,7 +26260,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="29" t="s">
+      <c r="K23" s="27" t="s">
         <v>104</v>
       </c>
       <c r="L23" s="8">
@@ -26141,7 +26282,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="29"/>
+      <c r="K24" s="27"/>
       <c r="L24" s="8">
         <v>529</v>
       </c>
@@ -26161,7 +26302,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="29"/>
+      <c r="K25" s="27"/>
       <c r="L25" s="8">
         <v>467</v>
       </c>
@@ -26181,7 +26322,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="29"/>
+      <c r="K26" s="27"/>
       <c r="L26" s="8">
         <v>446</v>
       </c>
@@ -26201,7 +26342,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="29"/>
+      <c r="K27" s="27"/>
       <c r="L27" s="8">
         <v>444</v>
       </c>
@@ -26221,7 +26362,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="29"/>
+      <c r="K28" s="27"/>
       <c r="L28" s="8">
         <v>377</v>
       </c>
@@ -26241,7 +26382,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="29"/>
+      <c r="K29" s="27"/>
       <c r="L29" s="8">
         <v>375</v>
       </c>
@@ -26261,7 +26402,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K30" s="29"/>
+      <c r="K30" s="27"/>
       <c r="L30" s="8">
         <v>326</v>
       </c>
@@ -26281,7 +26422,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K31" s="29"/>
+      <c r="K31" s="27"/>
       <c r="L31" s="8">
         <v>324</v>
       </c>
@@ -26301,7 +26442,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="29"/>
+      <c r="K32" s="27"/>
       <c r="L32" s="8">
         <v>320</v>
       </c>
@@ -26367,8 +26508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4C73E-833A-4410-9019-FF849DCE3D9B}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26380,49 +26521,49 @@
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>5</v>
       </c>
       <c r="C2" s="8">
@@ -26442,15 +26583,15 @@
       <c r="G2" s="8">
         <v>8.5</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="32">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="32">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99969019000000003</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26458,14 +26599,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>896-897</v>
       </c>
-      <c r="M2" s="27">
+      <c r="M2" s="25">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>3.0980999999999999E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="17">
+      <c r="A3" s="28"/>
+      <c r="B3" s="16">
         <v>13</v>
       </c>
       <c r="C3" s="8">
@@ -26485,15 +26626,15 @@
       <c r="G3" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="32">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="32">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99932162999999996</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26501,14 +26642,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>938-959</v>
       </c>
-      <c r="M3" s="27">
+      <c r="M3" s="25">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>6.7836999999999997E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="17">
+      <c r="A4" s="28"/>
+      <c r="B4" s="16">
         <v>24</v>
       </c>
       <c r="C4" s="8">
@@ -26528,15 +26669,15 @@
       <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="32">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="32">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99845779999999995</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26544,14 +26685,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>995-979</v>
       </c>
-      <c r="M4" s="27">
+      <c r="M4" s="25">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>1.5422000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="17">
+      <c r="A5" s="28"/>
+      <c r="B5" s="16">
         <v>20</v>
       </c>
       <c r="C5" s="8">
@@ -26571,15 +26712,15 @@
       <c r="G5" s="8">
         <v>1.4</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="32">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="32">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99961253000000005</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26587,14 +26728,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>964-976</v>
       </c>
-      <c r="M5" s="27">
+      <c r="M5" s="25">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>3.8747E-4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
-      <c r="B6" s="17">
+      <c r="A6" s="28"/>
+      <c r="B6" s="16">
         <v>23</v>
       </c>
       <c r="C6" s="8">
@@ -26614,15 +26755,15 @@
       <c r="G6" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="32">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="32">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99874719999999995</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26630,16 +26771,16 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>995-964</v>
       </c>
-      <c r="M6" s="27">
+      <c r="M6" s="25">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>1.2528000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>17</v>
       </c>
       <c r="C7" s="8">
@@ -26657,15 +26798,15 @@
         <v>NSRITA-RS525</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="11">
+      <c r="H7" s="32">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="32">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99873540000000005</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26673,53 +26814,53 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>955-979</v>
       </c>
-      <c r="M7" s="27">
+      <c r="M7" s="25">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>1.2646000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20">
         <f>1-Tabela6[[#Totals],[P]]</f>
         <v>5.4236181757127966E-3</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <f>PRODUCT(Tabela6[P])</f>
         <v>0.9945763818242872</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <f>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="24" t="s">
+      <c r="H10" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f>PRODUCT(Tabela6[P],Tabela14[P Eq])</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="24">
         <f>I10</f>
         <v>0.9945472624124081</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <f>1-I10</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="24">
         <f>I11</f>
         <v>5.4527375875919049E-3</v>
       </c>
@@ -26750,8 +26891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R2:S32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26828,7 +26969,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="8">
@@ -26889,7 +27030,7 @@
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-946</v>
       </c>
-      <c r="S2" s="26" t="str">
+      <c r="S2" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>960-1015</v>
       </c>
@@ -26899,7 +27040,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="8">
         <v>517</v>
       </c>
@@ -26954,21 +27095,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R3" s="26" t="str">
+      <c r="R3" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-946</v>
       </c>
-      <c r="S3" s="26" t="str">
+      <c r="S3" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>1010-947</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.3305622500000001E-6</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="32"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="8">
         <v>508</v>
       </c>
@@ -27023,21 +27164,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R4" s="26" t="str">
+      <c r="R4" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-946</v>
       </c>
-      <c r="S4" s="26" t="str">
+      <c r="S4" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>959-895</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.3305622500000001E-6</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="8">
         <v>352</v>
       </c>
@@ -27092,21 +27233,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R5" s="26" t="str">
+      <c r="R5" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-955</v>
       </c>
-      <c r="S5" s="26" t="str">
+      <c r="S5" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-946</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>7.5078759039999993E-7</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="8">
         <v>349</v>
       </c>
@@ -27161,21 +27302,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R6" s="26" t="str">
+      <c r="R6" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-955</v>
       </c>
-      <c r="S6" s="26" t="str">
+      <c r="S6" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>938-946</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>7.5078759039999993E-7</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="30"/>
       <c r="B7" s="8">
         <v>487</v>
       </c>
@@ -27230,21 +27371,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R7" s="26" t="str">
+      <c r="R7" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>947-939</v>
       </c>
-      <c r="S7" s="26" t="str">
+      <c r="S7" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-946</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.1307078760000001E-7</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="8">
         <v>528</v>
       </c>
@@ -27299,21 +27440,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R8" s="26" t="str">
+      <c r="R8" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-964</v>
       </c>
-      <c r="S8" s="26" t="str">
+      <c r="S8" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>965-1057</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>9.9810090250000007E-7</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="8">
         <v>449</v>
       </c>
@@ -27368,21 +27509,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R9" s="26" t="str">
+      <c r="R9" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-946</v>
       </c>
-      <c r="S9" s="26" t="str">
+      <c r="S9" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>960-1015</v>
       </c>
-      <c r="T9" s="26">
+      <c r="T9" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.8299572840000001E-7</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="8">
         <v>470</v>
       </c>
@@ -27437,21 +27578,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R10" s="26" t="str">
+      <c r="R10" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-955</v>
       </c>
-      <c r="S10" s="26" t="str">
+      <c r="S10" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>960-1015</v>
       </c>
-      <c r="T10" s="26">
+      <c r="T10" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5388402500000001E-6</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="8">
         <v>538</v>
       </c>
@@ -27506,21 +27647,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R11" s="26" t="str">
+      <c r="R11" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-964</v>
       </c>
-      <c r="S11" s="26" t="str">
+      <c r="S11" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>1047-1069</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>9.9810090250000007E-7</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
+      <c r="A12" s="30"/>
       <c r="B12" s="8">
         <v>507</v>
       </c>
@@ -27575,21 +27716,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R12" s="26" t="str">
+      <c r="R12" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-946</v>
       </c>
-      <c r="S12" s="26" t="str">
+      <c r="S12" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-964</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.3305622500000001E-6</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="30"/>
       <c r="B13" s="8">
         <v>297</v>
       </c>
@@ -27644,21 +27785,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R13" s="26" t="str">
+      <c r="R13" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>856-1060</v>
       </c>
-      <c r="S13" s="26" t="str">
+      <c r="S13" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>938-955</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>8.8512200100000011E-8</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="32"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="8">
         <v>476</v>
       </c>
@@ -27713,21 +27854,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R14" s="26" t="str">
+      <c r="R14" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-955</v>
       </c>
-      <c r="S14" s="26" t="str">
+      <c r="S14" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>999-933</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5388402500000001E-6</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="32"/>
+      <c r="A15" s="30"/>
       <c r="B15" s="8">
         <v>269</v>
       </c>
@@ -27782,21 +27923,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R15" s="26" t="str">
+      <c r="R15" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>856-933</v>
       </c>
-      <c r="S15" s="26" t="str">
+      <c r="S15" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>938-955</v>
       </c>
-      <c r="T15" s="26">
+      <c r="T15" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>7.7746168899999996E-8</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="32"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="8">
         <v>448</v>
       </c>
@@ -27851,21 +27992,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R16" s="26" t="str">
+      <c r="R16" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-946</v>
       </c>
-      <c r="S16" s="26" t="str">
+      <c r="S16" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>959-895</v>
       </c>
-      <c r="T16" s="26">
+      <c r="T16" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.8299572840000001E-7</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="8">
         <v>542</v>
       </c>
@@ -27920,21 +28061,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R17" s="26" t="str">
+      <c r="R17" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-964</v>
       </c>
-      <c r="S17" s="26" t="str">
+      <c r="S17" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>1041-963</v>
       </c>
-      <c r="T17" s="26">
+      <c r="T17" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>9.9810090250000007E-7</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="8">
         <v>539</v>
       </c>
@@ -27989,21 +28130,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R18" s="26" t="str">
+      <c r="R18" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-964</v>
       </c>
-      <c r="S18" s="26" t="str">
+      <c r="S18" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>1057-1010</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>9.9810090250000007E-7</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
+      <c r="A19" s="30"/>
       <c r="B19" s="8">
         <v>272</v>
       </c>
@@ -28058,21 +28199,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R19" s="26" t="str">
+      <c r="R19" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>856-933</v>
       </c>
-      <c r="S19" s="26" t="str">
+      <c r="S19" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-964</v>
       </c>
-      <c r="T19" s="26">
+      <c r="T19" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>7.7746168899999996E-8</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
+      <c r="A20" s="30"/>
       <c r="B20" s="8">
         <v>541</v>
       </c>
@@ -28127,21 +28268,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R20" s="26" t="str">
+      <c r="R20" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-964</v>
       </c>
-      <c r="S20" s="26" t="str">
+      <c r="S20" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>1069-1041</v>
       </c>
-      <c r="T20" s="26">
+      <c r="T20" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>9.9810090250000007E-7</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="8">
         <v>353</v>
       </c>
@@ -28196,21 +28337,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R21" s="26" t="str">
+      <c r="R21" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-955</v>
       </c>
-      <c r="S21" s="26" t="str">
+      <c r="S21" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-964</v>
       </c>
-      <c r="T21" s="26">
+      <c r="T21" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>7.5078759039999993E-7</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="8">
         <v>468</v>
       </c>
@@ -28265,21 +28406,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R22" s="26" t="str">
+      <c r="R22" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-955</v>
       </c>
-      <c r="S22" s="26" t="str">
+      <c r="S22" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-964</v>
       </c>
-      <c r="T22" s="26">
+      <c r="T22" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5388402500000001E-6</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="8">
@@ -28334,21 +28475,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R23" s="26" t="str">
+      <c r="R23" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>999-896</v>
       </c>
-      <c r="S23" s="26" t="str">
+      <c r="S23" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>1060-897</v>
       </c>
-      <c r="T23" s="26">
+      <c r="T23" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.0547289999999998E-6</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
+      <c r="A24" s="28"/>
       <c r="B24" s="8">
         <v>529</v>
       </c>
@@ -28401,21 +28542,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R24" s="26" t="str">
+      <c r="R24" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>955-964</v>
       </c>
-      <c r="S24" s="26" t="str">
+      <c r="S24" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>976-979</v>
       </c>
-      <c r="T24" s="26">
+      <c r="T24" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>9.9810090250000007E-7</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="8">
         <v>467</v>
       </c>
@@ -28468,21 +28609,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R25" s="26" t="str">
+      <c r="R25" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-955</v>
       </c>
-      <c r="S25" s="26" t="str">
+      <c r="S25" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-946</v>
       </c>
-      <c r="T25" s="26">
+      <c r="T25" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5388402500000001E-6</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="8">
         <v>446</v>
       </c>
@@ -28535,21 +28676,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R26" s="26" t="str">
+      <c r="R26" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-946</v>
       </c>
-      <c r="S26" s="26" t="str">
+      <c r="S26" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-946</v>
       </c>
-      <c r="T26" s="26">
+      <c r="T26" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.8299572840000001E-7</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="8">
         <v>444</v>
       </c>
@@ -28602,21 +28743,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R27" s="26" t="str">
+      <c r="R27" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>938-946</v>
       </c>
-      <c r="S27" s="26" t="str">
+      <c r="S27" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>938-955</v>
       </c>
-      <c r="T27" s="26">
+      <c r="T27" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.8299572840000001E-7</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="8">
         <v>377</v>
       </c>
@@ -28669,21 +28810,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R28" s="26" t="str">
+      <c r="R28" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-959</v>
       </c>
-      <c r="S28" s="26" t="str">
+      <c r="S28" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-946</v>
       </c>
-      <c r="T28" s="26">
+      <c r="T28" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.3354113599999999E-6</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="8">
         <v>375</v>
       </c>
@@ -28736,21 +28877,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R29" s="26" t="str">
+      <c r="R29" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-959</v>
       </c>
-      <c r="S29" s="26" t="str">
+      <c r="S29" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>938-955</v>
       </c>
-      <c r="T29" s="26">
+      <c r="T29" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.3354113599999999E-6</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="8">
         <v>326</v>
       </c>
@@ -28803,21 +28944,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R30" s="26" t="str">
+      <c r="R30" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-895</v>
       </c>
-      <c r="S30" s="26" t="str">
+      <c r="S30" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>955-946</v>
       </c>
-      <c r="T30" s="26">
+      <c r="T30" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5818092900000001E-6</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="8">
         <v>324</v>
       </c>
@@ -28870,21 +29011,21 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R31" s="26" t="str">
+      <c r="R31" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-895</v>
       </c>
-      <c r="S31" s="26" t="str">
+      <c r="S31" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>933-959</v>
       </c>
-      <c r="T31" s="26">
+      <c r="T31" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5818092900000001E-6</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
+      <c r="A32" s="28"/>
       <c r="B32" s="8">
         <v>320</v>
       </c>
@@ -28937,15 +29078,15 @@
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
-      <c r="R32" s="26" t="str">
+      <c r="R32" s="1" t="str">
         <f>Tabela14[[#This Row],[De1]]&amp;"-"&amp;Tabela14[[#This Row],[Para1]]</f>
         <v>933-895</v>
       </c>
-      <c r="S32" s="26" t="str">
+      <c r="S32" s="1" t="str">
         <f>Tabela14[[#This Row],[De2]]&amp;"-"&amp;Tabela14[[#This Row],[Para2]]</f>
         <v>933-959</v>
       </c>
-      <c r="T32" s="26">
+      <c r="T32" s="1">
         <f>Tabela14[[#This Row],[Q Eq]]</f>
         <v>1.5818092900000001E-6</v>
       </c>
@@ -28971,7 +29112,7 @@
         <f>PRODUCT(Tabela14[P Eq])</f>
         <v>0.99997072179431268</v>
       </c>
-      <c r="P33" s="23">
+      <c r="P33" s="22">
         <f>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</f>
         <v>1</v>
       </c>

--- a/STB32/Confiabilidade.xlsx
+++ b/STB32/Confiabilidade.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ABAA9D-A00D-4738-AB00-1C6FF31790FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE98C8B-46BA-4DD0-BF3C-B36B97B09851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="5" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="6" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Severidade" sheetId="7" r:id="rId4"/>
     <sheet name="Contigencias ordem 1" sheetId="4" r:id="rId5"/>
     <sheet name="Contigencias ordem 2" sheetId="5" r:id="rId6"/>
+    <sheet name="Planilha1" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="leonardoBarras" localSheetId="0">Barras!$A$1:$AM$161</definedName>
@@ -33,9 +34,9 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
         <x14:slicerCache r:id="rId8"/>
         <x14:slicerCache r:id="rId9"/>
+        <x14:slicerCache r:id="rId10"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -104,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="118">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -435,20 +436,46 @@
   <si>
     <t>p</t>
   </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coluna1</t>
+  </si>
+  <si>
+    <t>Soma</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>Soma Acumulada</t>
+  </si>
+  <si>
+    <t>Contagem</t>
+  </si>
+  <si>
+    <t>Total (%)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000E+00"/>
     <numFmt numFmtId="168" formatCode="0.000000%"/>
     <numFmt numFmtId="169" formatCode="0.000E+00"/>
+    <numFmt numFmtId="170" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="171" formatCode="0.000000E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,6 +509,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -491,7 +525,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -610,12 +644,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -638,9 +687,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -670,6 +716,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,22 +728,1748 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="99">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -853,1149 +2628,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <top style="thin">
           <color indexed="64"/>
@@ -2019,68 +2651,10 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -3128,36 +3702,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}" name="Tabela5" displayName="Tabela5" ref="A1:E59" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A1:E59" xr:uid="{8C4F7790-E7F7-4EF0-B54E-D1823ACE95A6}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{9DFFAECE-7EA0-47FE-B0F2-CBBBD9745D8B}" name="Barra DE" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{6CDB9866-C348-40F6-A1A8-3FF362B0E38A}" name="Nome DE" dataDxfId="95"/>
+    <tableColumn id="3" xr3:uid="{1D42440C-9712-4E62-99A2-1CDB84338531}" name="Barra PARA" dataDxfId="94"/>
+    <tableColumn id="4" xr3:uid="{6B1D0BC3-711B-44E2-866B-D350EA3C271B}" name="Nome PARA" dataDxfId="93"/>
+    <tableColumn id="5" xr3:uid="{C7CF388C-D187-4A0B-B586-FD91F2513B05}" name="Circuito" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:F39" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}" name="Tabela2" displayName="Tabela2" ref="A1:F39" totalsRowShown="0" headerRowDxfId="91" dataDxfId="90">
   <autoFilter ref="A1:F39" xr:uid="{285D8EA8-3C01-4B4F-B339-304906C160CF}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E39">
     <sortCondition ref="A1:A39"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="70">
+    <tableColumn id="1" xr3:uid="{E3FAC358-335C-416F-8CDB-9FD6211A8CEA}" name="DE" dataDxfId="89"/>
+    <tableColumn id="5" xr3:uid="{5BF2F4BD-C3B3-4F31-ABB3-7E6CA80DE17B}" name="De(barra)" dataDxfId="88">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="69"/>
-    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="68">
+    <tableColumn id="2" xr3:uid="{3AA0A196-07A9-4045-9D38-2549140A86BF}" name="PARA" dataDxfId="87"/>
+    <tableColumn id="4" xr3:uid="{74E9DE7C-B823-49DE-B711-6B669B513093}" name="Para(barra)" dataDxfId="86">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="67"/>
-    <tableColumn id="6" xr3:uid="{927D24E1-9E8B-4261-B6B2-69EEC925FD98}" name="p" dataDxfId="4">
+    <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="85"/>
+    <tableColumn id="6" xr3:uid="{927D24E1-9E8B-4261-B6B2-69EEC925FD98}" name="p" dataDxfId="54">
       <calculatedColumnFormula>1-Tabela2[[#This Row],[q]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3166,49 +3740,49 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="H1:L39" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:L39">
     <sortCondition ref="H1:H39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="63">
+    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="82"/>
+    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="81">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="61">
+    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="79">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="59" dataDxfId="57" totalsRowDxfId="55" headerRowBorderDxfId="58" tableBorderDxfId="56" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="77" dataDxfId="75" totalsRowDxfId="73" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="72">
   <autoFilter ref="B1:J7" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="71" totalsRowDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="69" totalsRowDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="67" totalsRowDxfId="66">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="65" totalsRowDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="63" totalsRowDxfId="62">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="3" totalsRowDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="42">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="53" totalsRowDxfId="61"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="60">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="41">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="59">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="40">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="58">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -3218,50 +3792,81 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36" totalsRowBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="23" dataDxfId="21" totalsRowDxfId="22" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
   <autoFilter ref="B1:P32" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="47" totalsRowDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="45" totalsRowDxfId="44">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="26" totalsRowDxfId="25">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="41" totalsRowDxfId="40">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="22" totalsRowDxfId="21">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="19" totalsRowDxfId="37">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="18" totalsRowDxfId="17">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="20" totalsRowDxfId="28">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="7">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="25">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="24">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium10" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE815A5B-3F9F-44C2-ABCE-D7259C1B9B03}" name="Tabela1" displayName="Tabela1" ref="A1:G39" totalsRowCount="1" headerRowDxfId="1" dataDxfId="16" totalsRowDxfId="0">
+  <autoFilter ref="A1:G38" xr:uid="{EE815A5B-3F9F-44C2-ABCE-D7259C1B9B03}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G38">
+    <sortCondition ref="A1:A38"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F46BB00B-1216-4FC5-B885-0C81B6AB70C0}" name="Contingência" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{58BC1C2E-96B4-4F1B-9B8E-0641B7D47B14}" name="De1" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{37A2E1D3-5BCB-4114-9054-A824C7C16CF2}" name="Para1" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{E7AC2D74-67D4-421E-94E4-24543CF7A131}" name="De2" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{D8AE2BBC-11F2-458D-8B04-951127A16887}" name="Para2" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{62BF668A-DFF5-41BE-AA76-56496FDFC9E4}" name="Q Eq" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+      <totalsRowFormula>1-Tabela1[[#Totals],[P Eq]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{BFBDC13E-2BCA-4154-A931-73A3462E7C8C}" name="P Eq" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+      <totalsRowFormula>PRODUCT(Tabela1[P Eq])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -23827,7 +24432,7 @@
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="29" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -23856,7 +24461,7 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="29" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -23893,7 +24498,7 @@
       <c r="E2" s="2">
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="F2" s="31">
+      <c r="F2" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99972117000000005</v>
       </c>
@@ -23933,7 +24538,7 @@
       <c r="E3" s="2">
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99874229999999997</v>
       </c>
@@ -23973,7 +24578,7 @@
       <c r="E4" s="2">
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99913352</v>
       </c>
@@ -24013,7 +24618,7 @@
       <c r="E5" s="2">
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99884439999999997</v>
       </c>
@@ -24053,7 +24658,7 @@
       <c r="E6" s="2">
         <v>8.5125999999999995E-4</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99914873999999998</v>
       </c>
@@ -24093,7 +24698,7 @@
       <c r="E7" s="2">
         <v>1.6475999999999999E-4</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99983524000000001</v>
       </c>
@@ -24133,7 +24738,7 @@
       <c r="E8" s="2">
         <v>4.2778E-4</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99957222000000001</v>
       </c>
@@ -24173,7 +24778,7 @@
       <c r="E9" s="2">
         <v>1.1535E-3</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99884649999999997</v>
       </c>
@@ -24213,7 +24818,7 @@
       <c r="E10" s="2">
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99875950000000002</v>
       </c>
@@ -24253,7 +24858,7 @@
       <c r="E11" s="2">
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99932162999999996</v>
       </c>
@@ -24293,7 +24898,7 @@
       <c r="E12" s="2">
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99969019000000003</v>
       </c>
@@ -24333,7 +24938,7 @@
       <c r="E13" s="2">
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.998973</v>
       </c>
@@ -24373,7 +24978,7 @@
       <c r="E14" s="2">
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99900095</v>
       </c>
@@ -24413,7 +25018,7 @@
       <c r="E15" s="2">
         <v>3.8747E-4</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99961253000000005</v>
       </c>
@@ -24453,7 +25058,7 @@
       <c r="E16" s="2">
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99874719999999995</v>
       </c>
@@ -24493,7 +25098,7 @@
       <c r="E17" s="2">
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99873540000000005</v>
       </c>
@@ -24533,7 +25138,7 @@
       <c r="E18" s="2">
         <v>1.9623000000000001E-4</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99980376999999998</v>
       </c>
@@ -24573,7 +25178,7 @@
       <c r="E19" s="2">
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99985491000000004</v>
       </c>
@@ -24613,7 +25218,7 @@
       <c r="E20" s="2">
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99845779999999995</v>
       </c>
@@ -24653,7 +25258,7 @@
       <c r="E21" s="2">
         <v>3.1766999999999999E-4</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99968232999999995</v>
       </c>
@@ -24693,7 +25298,7 @@
       <c r="E22" s="2">
         <v>9.1901999999999999E-4</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99908098000000001</v>
       </c>
@@ -24733,7 +25338,7 @@
       <c r="E23" s="2">
         <v>8.2081000000000005E-4</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99917918999999999</v>
       </c>
@@ -24773,7 +25378,7 @@
       <c r="E24" s="2">
         <v>4.4252000000000001E-4</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99955748</v>
       </c>
@@ -24813,7 +25418,7 @@
       <c r="E25" s="2">
         <v>2.9751000000000002E-4</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99970249</v>
       </c>
@@ -24853,7 +25458,7 @@
       <c r="E26" s="2">
         <v>6.5850000000000001E-4</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99934149999999999</v>
       </c>
@@ -24893,7 +25498,7 @@
       <c r="E27" s="2">
         <v>4.2973000000000002E-4</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99957026999999998</v>
       </c>
@@ -24933,7 +25538,7 @@
       <c r="E28" s="2">
         <v>3.3626000000000001E-4</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99966374000000002</v>
       </c>
@@ -24973,7 +25578,7 @@
       <c r="E29" s="2">
         <v>3.4675999999999999E-4</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99965324</v>
       </c>
@@ -25013,7 +25618,7 @@
       <c r="E30" s="2">
         <v>1.9550000000000001E-4</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99980449999999998</v>
       </c>
@@ -25053,7 +25658,7 @@
       <c r="E31" s="2">
         <v>2.1504E-4</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99978495999999994</v>
       </c>
@@ -25093,7 +25698,7 @@
       <c r="E32" s="2">
         <v>2.7589E-5</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99997241100000001</v>
       </c>
@@ -25133,7 +25738,7 @@
       <c r="E33" s="2">
         <v>1.4266999999999999E-4</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99985732999999999</v>
       </c>
@@ -25173,7 +25778,7 @@
       <c r="E34" s="2">
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99943614999999997</v>
       </c>
@@ -25213,7 +25818,7 @@
       <c r="E35" s="2">
         <v>2.6751999999999999E-4</v>
       </c>
-      <c r="F35" s="31">
+      <c r="F35" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99973248000000003</v>
       </c>
@@ -25253,7 +25858,7 @@
       <c r="E36" s="2">
         <v>1.2668E-4</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99987331999999995</v>
       </c>
@@ -25293,7 +25898,7 @@
       <c r="E37" s="2">
         <v>6.1218999999999998E-4</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99938780999999999</v>
       </c>
@@ -25333,7 +25938,7 @@
       <c r="E38" s="2">
         <v>2.1210000000000001E-4</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99978789999999995</v>
       </c>
@@ -25373,7 +25978,7 @@
       <c r="E39" s="2">
         <v>4.3374E-4</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="29">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99956626000000004</v>
       </c>
@@ -26508,8 +27113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA4C73E-833A-4410-9019-FF849DCE3D9B}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26528,34 +27133,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>105</v>
       </c>
     </row>
@@ -26563,7 +27168,7 @@
       <c r="A2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>5</v>
       </c>
       <c r="C2" s="8">
@@ -26583,15 +27188,15 @@
       <c r="G2" s="8">
         <v>8.5</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="30">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="30">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99969019000000003</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="16">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26599,14 +27204,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>896-897</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>3.0980999999999999E-4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>13</v>
       </c>
       <c r="C3" s="8">
@@ -26626,15 +27231,15 @@
       <c r="G3" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="30">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I3" s="32">
+      <c r="I3" s="30">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99932162999999996</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="16">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26642,14 +27247,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>938-959</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>6.7836999999999997E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="28"/>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>24</v>
       </c>
       <c r="C4" s="8">
@@ -26669,15 +27274,15 @@
       <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="30">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="30">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99845779999999995</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26685,14 +27290,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>995-979</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>1.5422000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>20</v>
       </c>
       <c r="C5" s="8">
@@ -26712,15 +27317,15 @@
       <c r="G5" s="8">
         <v>1.4</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="30">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="30">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99961253000000005</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="16">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26728,14 +27333,14 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>964-976</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>3.8747E-4</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>23</v>
       </c>
       <c r="C6" s="8">
@@ -26755,15 +27360,15 @@
       <c r="G6" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="30">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="30">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99874719999999995</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="16">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26771,16 +27376,16 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>995-964</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>1.2528000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>17</v>
       </c>
       <c r="C7" s="8">
@@ -26798,15 +27403,15 @@
         <v>NSRITA-RS525</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="32">
+      <c r="H7" s="30">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="30">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99873540000000005</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="16">
         <f>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</f>
         <v>1</v>
       </c>
@@ -26814,53 +27419,53 @@
         <f>Tabela6[[#This Row],[De1]]&amp;"-"&amp;Tabela6[[#This Row],[Para1]]</f>
         <v>955-979</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <f>Tabela6[[#This Row],[Q]]</f>
         <v>1.2646000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20">
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19">
         <f>1-Tabela6[[#Totals],[P]]</f>
         <v>5.4236181757127966E-3</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="19">
         <f>PRODUCT(Tabela6[P])</f>
         <v>0.9945763818242872</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="20">
         <f>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <f>PRODUCT(Tabela6[P],Tabela14[P Eq])</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="23">
         <f>I10</f>
         <v>0.9945472624124081</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f>1-I10</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="23">
         <f>I11</f>
         <v>5.4527375875919049E-3</v>
       </c>
@@ -26891,8 +27496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26910,10 +27515,12 @@
     <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="9" style="1"/>
+    <col min="17" max="17" width="9" style="1"/>
+    <col min="18" max="18" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
@@ -26969,7 +27576,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="7" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="8">
@@ -26992,7 +27599,7 @@
       <c r="G2" s="8">
         <v>9.6</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="32">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27010,19 +27617,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="32">
         <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27040,7 +27647,9 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
+      <c r="A3" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B3" s="8">
         <v>517</v>
       </c>
@@ -27061,7 +27670,7 @@
       <c r="G3" s="8">
         <v>5.5</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="32">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27079,19 +27688,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="32">
         <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27109,7 +27718,9 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
+      <c r="A4" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B4" s="8">
         <v>508</v>
       </c>
@@ -27130,7 +27741,7 @@
       <c r="G4" s="8">
         <v>5.2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="32">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27148,19 +27759,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="32">
         <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27178,7 +27789,9 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B5" s="8">
         <v>352</v>
       </c>
@@ -27199,7 +27812,7 @@
       <c r="G5" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="32">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
@@ -27217,19 +27830,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="32">
         <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27247,7 +27860,9 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+      <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B6" s="8">
         <v>349</v>
       </c>
@@ -27268,7 +27883,7 @@
       <c r="G6" s="8">
         <v>3.5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="32">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
@@ -27286,19 +27901,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="32">
         <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O6" s="10">
+      <c r="O6" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P6" s="10">
+      <c r="P6" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27316,7 +27931,9 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B7" s="8">
         <v>487</v>
       </c>
@@ -27337,7 +27954,7 @@
       <c r="G7" s="8">
         <v>3.2</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="32">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.3626000000000001E-4</v>
       </c>
@@ -27355,19 +27972,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="32">
         <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.3626000000000001E-4</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.1307078760000001E-7</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999988692921238</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27385,7 +28002,9 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+      <c r="A8" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" s="8">
         <v>528</v>
       </c>
@@ -27406,7 +28025,7 @@
       <c r="G8" s="8">
         <v>3.2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="32">
         <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -27424,19 +28043,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="32">
         <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O8" s="10">
+      <c r="O8" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P8" s="10">
+      <c r="P8" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27454,7 +28073,9 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+      <c r="A9" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B9" s="8">
         <v>449</v>
       </c>
@@ -27475,7 +28096,7 @@
       <c r="G9" s="8">
         <v>2.6</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="32">
         <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -27493,19 +28114,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="32">
         <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O9" s="10">
+      <c r="O9" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P9" s="10">
+      <c r="P9" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27523,7 +28144,9 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+      <c r="A10" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B10" s="8">
         <v>470</v>
       </c>
@@ -27544,7 +28167,7 @@
       <c r="G10" s="8">
         <v>2.5</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="32">
         <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -27562,19 +28185,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="32">
         <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O10" s="10">
+      <c r="O10" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P10" s="10">
+      <c r="P10" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27592,7 +28215,9 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+      <c r="A11" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B11" s="8">
         <v>538</v>
       </c>
@@ -27613,7 +28238,7 @@
       <c r="G11" s="8">
         <v>2.4</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="32">
         <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -27631,19 +28256,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>XANXER-SC230</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="32">
         <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27661,7 +28286,9 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+      <c r="A12" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" s="8">
         <v>507</v>
       </c>
@@ -27682,7 +28309,7 @@
       <c r="G12" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="32">
         <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27700,19 +28327,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="32">
         <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O12" s="10">
+      <c r="O12" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P12" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27730,7 +28357,9 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
+      <c r="A13" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B13" s="8">
         <v>297</v>
       </c>
@@ -27751,7 +28380,7 @@
       <c r="G13" s="8">
         <v>1.8</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="32">
         <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.9751000000000002E-4</v>
       </c>
@@ -27769,19 +28398,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="32">
         <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.9751000000000002E-4</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>8.8512200100000011E-8</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999991148779988</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27799,7 +28428,9 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="30"/>
+      <c r="A14" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B14" s="8">
         <v>476</v>
       </c>
@@ -27820,7 +28451,7 @@
       <c r="G14" s="8">
         <v>1.7</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="32">
         <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -27838,19 +28469,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="32">
         <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O14" s="10">
+      <c r="O14" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P14" s="10">
+      <c r="P14" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27868,7 +28499,9 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="30"/>
+      <c r="A15" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B15" s="8">
         <v>269</v>
       </c>
@@ -27889,7 +28522,7 @@
       <c r="G15" s="8">
         <v>1.2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="32">
         <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
@@ -27907,19 +28540,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="32">
         <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27937,7 +28570,9 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
+      <c r="A16" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" s="8">
         <v>448</v>
       </c>
@@ -27958,7 +28593,7 @@
       <c r="G16" s="8">
         <v>1.2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="32">
         <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -27976,19 +28611,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="32">
         <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O16" s="10">
+      <c r="O16" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P16" s="10">
+      <c r="P16" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28006,7 +28641,9 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
+      <c r="A17" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B17" s="8">
         <v>542</v>
       </c>
@@ -28027,7 +28664,7 @@
       <c r="G17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="32">
         <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28045,19 +28682,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>MCLARO-RS230</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="32">
         <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P17" s="10">
+      <c r="P17" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28075,7 +28712,9 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
+      <c r="A18" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B18" s="8">
         <v>539</v>
       </c>
@@ -28096,7 +28735,7 @@
       <c r="G18" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="32">
         <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28114,19 +28753,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="32">
         <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O18" s="10">
+      <c r="O18" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P18" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28144,7 +28783,9 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
+      <c r="A19" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B19" s="8">
         <v>272</v>
       </c>
@@ -28165,7 +28806,7 @@
       <c r="G19" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="32">
         <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
@@ -28183,19 +28824,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="32">
         <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O19" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P19" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28213,7 +28854,9 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
+      <c r="A20" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B20" s="8">
         <v>541</v>
       </c>
@@ -28234,7 +28877,7 @@
       <c r="G20" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="32">
         <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28252,19 +28895,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>PFUNDO-RS230</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="32">
         <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O20" s="10">
+      <c r="O20" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P20" s="10">
+      <c r="P20" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28282,7 +28925,9 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
+      <c r="A21" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B21" s="8">
         <v>353</v>
       </c>
@@ -28303,7 +28948,7 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="32">
         <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
@@ -28321,19 +28966,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="32">
         <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O21" s="10">
+      <c r="O21" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P21" s="10">
+      <c r="P21" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28351,7 +28996,9 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
+      <c r="A22" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="B22" s="8">
         <v>468</v>
       </c>
@@ -28372,7 +29019,7 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="32">
         <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -28390,19 +29037,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="32">
         <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O22" s="10">
+      <c r="O22" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P22" s="10">
+      <c r="P22" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28420,7 +29067,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="25" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="8">
@@ -28441,7 +29088,7 @@
         <v>CASCOE-PR525</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="7">
+      <c r="H23" s="32">
         <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
@@ -28459,19 +29106,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="32">
         <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.0547289999999998E-6</v>
       </c>
-      <c r="O23" s="10">
+      <c r="O23" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999894527099997</v>
       </c>
-      <c r="P23" s="10">
+      <c r="P23" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28489,7 +29136,9 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
+      <c r="A24" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B24" s="8">
         <v>529</v>
       </c>
@@ -28508,7 +29157,7 @@
         <v>CAXIAS-RS525</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="7">
+      <c r="H24" s="32">
         <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28526,19 +29175,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="32">
         <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O24" s="10">
+      <c r="O24" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P24" s="10">
+      <c r="P24" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28556,7 +29205,9 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+      <c r="A25" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B25" s="8">
         <v>467</v>
       </c>
@@ -28575,7 +29226,7 @@
         <v>CNOVOS-SC525</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="7">
+      <c r="H25" s="32">
         <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -28593,19 +29244,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="32">
         <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O25" s="10">
+      <c r="O25" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28623,7 +29274,9 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
+      <c r="A26" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B26" s="8">
         <v>446</v>
       </c>
@@ -28642,7 +29295,7 @@
         <v>BIGUAC-SC525</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="7">
+      <c r="H26" s="32">
         <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -28660,19 +29313,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="32">
         <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O26" s="10">
+      <c r="O26" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P26" s="10">
+      <c r="P26" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28690,7 +29343,9 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
+      <c r="A27" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B27" s="8">
         <v>444</v>
       </c>
@@ -28709,7 +29364,7 @@
         <v>BIGUAC-SC525</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="7">
+      <c r="H27" s="32">
         <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -28727,19 +29382,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="32">
         <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28757,7 +29412,9 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
+      <c r="A28" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B28" s="8">
         <v>377</v>
       </c>
@@ -28776,7 +29433,7 @@
         <v>CURITI-PR525</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="7">
+      <c r="H28" s="32">
         <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
@@ -28794,19 +29451,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="32">
         <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O28" s="10">
+      <c r="O28" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P28" s="10">
+      <c r="P28" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28824,7 +29481,9 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
+      <c r="A29" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B29" s="8">
         <v>375</v>
       </c>
@@ -28843,7 +29502,7 @@
         <v>CURITI-PR525</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="7">
+      <c r="H29" s="32">
         <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
@@ -28861,19 +29520,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="32">
         <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O29" s="10">
+      <c r="O29" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P29" s="10">
+      <c r="P29" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28891,7 +29550,9 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
+      <c r="A30" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B30" s="8">
         <v>326</v>
       </c>
@@ -28910,7 +29571,7 @@
         <v>BATEIA-PR525</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="7">
+      <c r="H30" s="32">
         <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
@@ -28928,19 +29589,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="32">
         <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O30" s="10">
+      <c r="O30" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28958,7 +29619,9 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
+      <c r="A31" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B31" s="8">
         <v>324</v>
       </c>
@@ -28977,7 +29640,7 @@
         <v>BATEIA-PR525</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="7">
+      <c r="H31" s="32">
         <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
@@ -28995,19 +29658,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="32">
         <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O31" s="10">
+      <c r="O31" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29025,7 +29688,9 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
+      <c r="A32" s="25" t="s">
+        <v>104</v>
+      </c>
       <c r="B32" s="8">
         <v>320</v>
       </c>
@@ -29044,7 +29709,7 @@
         <v>BATEIA-PR525</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="7">
+      <c r="H32" s="32">
         <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
@@ -29062,19 +29727,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="32">
         <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="32">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O32" s="10">
+      <c r="O32" s="31">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P32" s="10">
+      <c r="P32" s="31">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29112,16 +29777,12 @@
         <f>PRODUCT(Tabela14[P Eq])</f>
         <v>0.99997072179431268</v>
       </c>
-      <c r="P33" s="22">
+      <c r="P33" s="21">
         <f>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A22"/>
-    <mergeCell ref="A23:A32"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29129,4 +29790,973 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248FA928-7650-4F61-89A0-85A2030E5DFE}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39:M40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="8" style="33" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.28515625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="33"/>
+    <col min="11" max="12" width="12" style="33" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="35">
+        <v>5</v>
+      </c>
+      <c r="B2" s="34">
+        <v>896</v>
+      </c>
+      <c r="C2" s="34">
+        <v>897</v>
+      </c>
+      <c r="D2" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="36">
+        <v>3.0980999999999999E-4</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0.99969019000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>13</v>
+      </c>
+      <c r="B3" s="34">
+        <v>938</v>
+      </c>
+      <c r="C3" s="34">
+        <v>959</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="36">
+        <v>6.7836999999999997E-4</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0.99932162999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>17</v>
+      </c>
+      <c r="B4" s="34">
+        <v>955</v>
+      </c>
+      <c r="C4" s="34">
+        <v>979</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1.2646000000000001E-3</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0.99873540000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>20</v>
+      </c>
+      <c r="B5" s="34">
+        <v>964</v>
+      </c>
+      <c r="C5" s="34">
+        <v>976</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="36">
+        <v>3.8747E-4</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0.99961253000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>23</v>
+      </c>
+      <c r="B6" s="34">
+        <v>995</v>
+      </c>
+      <c r="C6" s="34">
+        <v>964</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F6" s="36">
+        <v>1.2528000000000001E-3</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.99874719999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>24</v>
+      </c>
+      <c r="B7" s="34">
+        <v>995</v>
+      </c>
+      <c r="C7" s="34">
+        <v>979</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="36">
+        <v>1.5422000000000001E-3</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0.99845779999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>269</v>
+      </c>
+      <c r="B8" s="34">
+        <v>856</v>
+      </c>
+      <c r="C8" s="34">
+        <v>933</v>
+      </c>
+      <c r="D8" s="34">
+        <v>938</v>
+      </c>
+      <c r="E8" s="34">
+        <v>955</v>
+      </c>
+      <c r="F8" s="36">
+        <v>7.7746168899999996E-8</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0.99999992225383105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>272</v>
+      </c>
+      <c r="B9" s="34">
+        <v>856</v>
+      </c>
+      <c r="C9" s="34">
+        <v>933</v>
+      </c>
+      <c r="D9" s="34">
+        <v>955</v>
+      </c>
+      <c r="E9" s="34">
+        <v>964</v>
+      </c>
+      <c r="F9" s="36">
+        <v>7.7746168899999996E-8</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0.99999992225383105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>297</v>
+      </c>
+      <c r="B10" s="34">
+        <v>856</v>
+      </c>
+      <c r="C10" s="34">
+        <v>1060</v>
+      </c>
+      <c r="D10" s="34">
+        <v>938</v>
+      </c>
+      <c r="E10" s="34">
+        <v>955</v>
+      </c>
+      <c r="F10" s="36">
+        <v>8.8512200100000011E-8</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.99999991148779988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>320</v>
+      </c>
+      <c r="B11" s="34">
+        <v>933</v>
+      </c>
+      <c r="C11" s="34">
+        <v>895</v>
+      </c>
+      <c r="D11" s="34">
+        <v>933</v>
+      </c>
+      <c r="E11" s="34">
+        <v>959</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="G11" s="36">
+        <v>0.99999841819071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>324</v>
+      </c>
+      <c r="B12" s="34">
+        <v>933</v>
+      </c>
+      <c r="C12" s="34">
+        <v>895</v>
+      </c>
+      <c r="D12" s="34">
+        <v>933</v>
+      </c>
+      <c r="E12" s="34">
+        <v>959</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.99999841819071</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="35">
+        <v>326</v>
+      </c>
+      <c r="B13" s="34">
+        <v>933</v>
+      </c>
+      <c r="C13" s="34">
+        <v>895</v>
+      </c>
+      <c r="D13" s="34">
+        <v>955</v>
+      </c>
+      <c r="E13" s="34">
+        <v>946</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="G13" s="36">
+        <v>0.99999841819071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="35">
+        <v>349</v>
+      </c>
+      <c r="B14" s="34">
+        <v>933</v>
+      </c>
+      <c r="C14" s="34">
+        <v>955</v>
+      </c>
+      <c r="D14" s="34">
+        <v>938</v>
+      </c>
+      <c r="E14" s="34">
+        <v>946</v>
+      </c>
+      <c r="F14" s="36">
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="G14" s="36">
+        <v>0.99999924921240957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="35">
+        <v>352</v>
+      </c>
+      <c r="B15" s="34">
+        <v>933</v>
+      </c>
+      <c r="C15" s="34">
+        <v>955</v>
+      </c>
+      <c r="D15" s="34">
+        <v>955</v>
+      </c>
+      <c r="E15" s="34">
+        <v>946</v>
+      </c>
+      <c r="F15" s="36">
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0.99999924921240957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="35">
+        <v>353</v>
+      </c>
+      <c r="B16" s="34">
+        <v>933</v>
+      </c>
+      <c r="C16" s="34">
+        <v>955</v>
+      </c>
+      <c r="D16" s="34">
+        <v>955</v>
+      </c>
+      <c r="E16" s="34">
+        <v>964</v>
+      </c>
+      <c r="F16" s="36">
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="G16" s="36">
+        <v>0.99999924921240957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="35">
+        <v>375</v>
+      </c>
+      <c r="B17" s="34">
+        <v>933</v>
+      </c>
+      <c r="C17" s="34">
+        <v>959</v>
+      </c>
+      <c r="D17" s="34">
+        <v>938</v>
+      </c>
+      <c r="E17" s="34">
+        <v>955</v>
+      </c>
+      <c r="F17" s="36">
+        <v>1.3354113599999999E-6</v>
+      </c>
+      <c r="G17" s="36">
+        <v>0.99999866458863995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="35">
+        <v>377</v>
+      </c>
+      <c r="B18" s="34">
+        <v>933</v>
+      </c>
+      <c r="C18" s="34">
+        <v>959</v>
+      </c>
+      <c r="D18" s="34">
+        <v>955</v>
+      </c>
+      <c r="E18" s="34">
+        <v>946</v>
+      </c>
+      <c r="F18" s="36">
+        <v>1.3354113599999999E-6</v>
+      </c>
+      <c r="G18" s="36">
+        <v>0.99999866458863995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="35">
+        <v>444</v>
+      </c>
+      <c r="B19" s="34">
+        <v>938</v>
+      </c>
+      <c r="C19" s="34">
+        <v>946</v>
+      </c>
+      <c r="D19" s="34">
+        <v>938</v>
+      </c>
+      <c r="E19" s="34">
+        <v>955</v>
+      </c>
+      <c r="F19" s="36">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="G19" s="36">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="35">
+        <v>446</v>
+      </c>
+      <c r="B20" s="34">
+        <v>938</v>
+      </c>
+      <c r="C20" s="34">
+        <v>946</v>
+      </c>
+      <c r="D20" s="34">
+        <v>955</v>
+      </c>
+      <c r="E20" s="34">
+        <v>946</v>
+      </c>
+      <c r="F20" s="36">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="G20" s="36">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="35">
+        <v>448</v>
+      </c>
+      <c r="B21" s="34">
+        <v>938</v>
+      </c>
+      <c r="C21" s="34">
+        <v>946</v>
+      </c>
+      <c r="D21" s="34">
+        <v>959</v>
+      </c>
+      <c r="E21" s="34">
+        <v>895</v>
+      </c>
+      <c r="F21" s="36">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="35">
+        <v>449</v>
+      </c>
+      <c r="B22" s="34">
+        <v>938</v>
+      </c>
+      <c r="C22" s="34">
+        <v>946</v>
+      </c>
+      <c r="D22" s="34">
+        <v>960</v>
+      </c>
+      <c r="E22" s="34">
+        <v>1015</v>
+      </c>
+      <c r="F22" s="36">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="35">
+        <v>467</v>
+      </c>
+      <c r="B23" s="34">
+        <v>938</v>
+      </c>
+      <c r="C23" s="34">
+        <v>955</v>
+      </c>
+      <c r="D23" s="34">
+        <v>955</v>
+      </c>
+      <c r="E23" s="34">
+        <v>946</v>
+      </c>
+      <c r="F23" s="36">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="G23" s="36">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="35">
+        <v>468</v>
+      </c>
+      <c r="B24" s="34">
+        <v>938</v>
+      </c>
+      <c r="C24" s="34">
+        <v>955</v>
+      </c>
+      <c r="D24" s="34">
+        <v>955</v>
+      </c>
+      <c r="E24" s="34">
+        <v>964</v>
+      </c>
+      <c r="F24" s="36">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="G24" s="36">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="35">
+        <v>470</v>
+      </c>
+      <c r="B25" s="34">
+        <v>938</v>
+      </c>
+      <c r="C25" s="34">
+        <v>955</v>
+      </c>
+      <c r="D25" s="34">
+        <v>960</v>
+      </c>
+      <c r="E25" s="34">
+        <v>1015</v>
+      </c>
+      <c r="F25" s="36">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="G25" s="36">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="35">
+        <v>476</v>
+      </c>
+      <c r="B26" s="34">
+        <v>938</v>
+      </c>
+      <c r="C26" s="34">
+        <v>955</v>
+      </c>
+      <c r="D26" s="34">
+        <v>999</v>
+      </c>
+      <c r="E26" s="34">
+        <v>933</v>
+      </c>
+      <c r="F26" s="36">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="G26" s="36">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="35">
+        <v>487</v>
+      </c>
+      <c r="B27" s="34">
+        <v>947</v>
+      </c>
+      <c r="C27" s="34">
+        <v>939</v>
+      </c>
+      <c r="D27" s="34">
+        <v>955</v>
+      </c>
+      <c r="E27" s="34">
+        <v>946</v>
+      </c>
+      <c r="F27" s="36">
+        <v>1.1307078760000001E-7</v>
+      </c>
+      <c r="G27" s="36">
+        <v>0.99999988692921238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="35">
+        <v>507</v>
+      </c>
+      <c r="B28" s="34">
+        <v>955</v>
+      </c>
+      <c r="C28" s="34">
+        <v>946</v>
+      </c>
+      <c r="D28" s="34">
+        <v>955</v>
+      </c>
+      <c r="E28" s="34">
+        <v>964</v>
+      </c>
+      <c r="F28" s="36">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="G28" s="36">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="35">
+        <v>508</v>
+      </c>
+      <c r="B29" s="34">
+        <v>955</v>
+      </c>
+      <c r="C29" s="34">
+        <v>946</v>
+      </c>
+      <c r="D29" s="34">
+        <v>959</v>
+      </c>
+      <c r="E29" s="34">
+        <v>895</v>
+      </c>
+      <c r="F29" s="36">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="G29" s="36">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="35">
+        <v>509</v>
+      </c>
+      <c r="B30" s="34">
+        <v>955</v>
+      </c>
+      <c r="C30" s="34">
+        <v>946</v>
+      </c>
+      <c r="D30" s="34">
+        <v>960</v>
+      </c>
+      <c r="E30" s="34">
+        <v>1015</v>
+      </c>
+      <c r="F30" s="36">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="G30" s="36">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="35">
+        <v>517</v>
+      </c>
+      <c r="B31" s="34">
+        <v>955</v>
+      </c>
+      <c r="C31" s="34">
+        <v>946</v>
+      </c>
+      <c r="D31" s="34">
+        <v>1010</v>
+      </c>
+      <c r="E31" s="34">
+        <v>947</v>
+      </c>
+      <c r="F31" s="36">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="G31" s="36">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="35">
+        <v>528</v>
+      </c>
+      <c r="B32" s="34">
+        <v>955</v>
+      </c>
+      <c r="C32" s="34">
+        <v>964</v>
+      </c>
+      <c r="D32" s="34">
+        <v>965</v>
+      </c>
+      <c r="E32" s="34">
+        <v>1057</v>
+      </c>
+      <c r="F32" s="36">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="G32" s="36">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="35">
+        <v>529</v>
+      </c>
+      <c r="B33" s="34">
+        <v>955</v>
+      </c>
+      <c r="C33" s="34">
+        <v>964</v>
+      </c>
+      <c r="D33" s="34">
+        <v>976</v>
+      </c>
+      <c r="E33" s="34">
+        <v>979</v>
+      </c>
+      <c r="F33" s="36">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="G33" s="36">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="35">
+        <v>538</v>
+      </c>
+      <c r="B34" s="34">
+        <v>955</v>
+      </c>
+      <c r="C34" s="34">
+        <v>964</v>
+      </c>
+      <c r="D34" s="34">
+        <v>1047</v>
+      </c>
+      <c r="E34" s="34">
+        <v>1069</v>
+      </c>
+      <c r="F34" s="36">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="G34" s="36">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="35">
+        <v>539</v>
+      </c>
+      <c r="B35" s="34">
+        <v>955</v>
+      </c>
+      <c r="C35" s="34">
+        <v>964</v>
+      </c>
+      <c r="D35" s="34">
+        <v>1057</v>
+      </c>
+      <c r="E35" s="34">
+        <v>1010</v>
+      </c>
+      <c r="F35" s="36">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="G35" s="36">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="35">
+        <v>541</v>
+      </c>
+      <c r="B36" s="34">
+        <v>955</v>
+      </c>
+      <c r="C36" s="34">
+        <v>964</v>
+      </c>
+      <c r="D36" s="34">
+        <v>1069</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1041</v>
+      </c>
+      <c r="F36" s="36">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="G36" s="36">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="35">
+        <v>542</v>
+      </c>
+      <c r="B37" s="34">
+        <v>955</v>
+      </c>
+      <c r="C37" s="34">
+        <v>964</v>
+      </c>
+      <c r="D37" s="34">
+        <v>1041</v>
+      </c>
+      <c r="E37" s="34">
+        <v>963</v>
+      </c>
+      <c r="F37" s="36">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="G37" s="36">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="35">
+        <v>638</v>
+      </c>
+      <c r="B38" s="34">
+        <v>999</v>
+      </c>
+      <c r="C38" s="34">
+        <v>896</v>
+      </c>
+      <c r="D38" s="34">
+        <v>1060</v>
+      </c>
+      <c r="E38" s="34">
+        <v>897</v>
+      </c>
+      <c r="F38" s="36">
+        <v>1.0547289999999998E-6</v>
+      </c>
+      <c r="G38" s="36">
+        <v>0.99999894527099997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="37">
+        <f>1-Tabela1[[#Totals],[P Eq]]</f>
+        <v>5.4527375875919049E-3</v>
+      </c>
+      <c r="G39" s="37">
+        <f>PRODUCT(Tabela1[P Eq])</f>
+        <v>0.9945472624124081</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="K39" s="37">
+        <f>1-Tabela1[[#Totals],[P Eq]]</f>
+        <v>5.4527375875919049E-3</v>
+      </c>
+      <c r="L39" s="37">
+        <f>PRODUCT(Tabela1[P Eq])</f>
+        <v>0.9945472624124081</v>
+      </c>
+      <c r="M39" s="39">
+        <f>L39+K39</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38">
+        <f>Tabela1[[#Totals],[Q Eq]]</f>
+        <v>5.4527375875919049E-3</v>
+      </c>
+      <c r="G40" s="38">
+        <f>Tabela1[[#Totals],[P Eq]]</f>
+        <v>0.9945472624124081</v>
+      </c>
+      <c r="J40" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="K40" s="38">
+        <f>Tabela1[[#Totals],[Q Eq]]</f>
+        <v>5.4527375875919049E-3</v>
+      </c>
+      <c r="L40" s="38">
+        <f>Tabela1[[#Totals],[P Eq]]</f>
+        <v>0.9945472624124081</v>
+      </c>
+      <c r="M40" s="40">
+        <f>L40+K40</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/STB32/Confiabilidade.xlsx
+++ b/STB32/Confiabilidade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Confiabilidade\STB32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\projetos\Confiabilidade\STB32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE98C8B-46BA-4DD0-BF3C-B36B97B09851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A10C5D0-FBEB-4FEC-90C7-4A5AC3C17608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="662" activeTab="6" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="662" activeTab="6" xr2:uid="{BF70868E-A8BD-433C-AC44-EAE67A23BC06}"/>
   </bookViews>
   <sheets>
     <sheet name="Barras" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="SegmentaçãodeDados_Barra_PARA">#N/A</definedName>
     <definedName name="SegmentaçãodeDados_Circuito">#N/A</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
@@ -45,7 +45,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -105,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="118">
   <si>
     <t>CNOVOS-SC525</t>
   </si>
@@ -443,29 +445,29 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Coluna1</t>
+    <t>Total (%)</t>
   </si>
   <si>
-    <t>Soma</t>
+    <t>Nível de carregamento (MW)</t>
   </si>
   <si>
-    <t>Média</t>
+    <t>Área 1</t>
   </si>
   <si>
-    <t>Soma Acumulada</t>
+    <t>Área 2</t>
   </si>
   <si>
-    <t>Contagem</t>
+    <t>Área 3</t>
   </si>
   <si>
-    <t>Total (%)</t>
+    <t>Nível de Geração</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
@@ -474,6 +476,7 @@
     <numFmt numFmtId="169" formatCode="0.000E+00"/>
     <numFmt numFmtId="170" formatCode="0.00000E+00"/>
     <numFmt numFmtId="171" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="174" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -525,7 +528,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -659,12 +662,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -716,18 +730,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,13 +741,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -755,31 +751,64 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="99">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -797,69 +826,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -882,116 +856,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="170" formatCode="0.00000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1013,329 +881,10 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="1"/>
-        </left>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -1361,20 +910,276 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
         <right style="thin">
           <color theme="1"/>
         </right>
         <top/>
         <bottom/>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="170" formatCode="0.00000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1396,32 +1201,14 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="1"/>
-        </right>
-        <top style="thin">
-          <color theme="1"/>
-        </top>
-        <bottom style="thin">
-          <color theme="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="1"/>
-        </horizontal>
-      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -1439,33 +1226,15 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1478,8 +1247,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1521,27 +1288,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="0.000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1554,8 +1302,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1571,7 +1317,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <numFmt numFmtId="171" formatCode="0.000000E+00"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1594,96 +1340,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00000000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1754,6 +1410,44 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2059,6 +1753,44 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="0.000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2471,6 +2203,196 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2521,29 +2443,27 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top style="thin">
+        <right style="thin">
           <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
           <color indexed="64"/>
-        </bottom>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -2602,147 +2522,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2777,21 +2556,25 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
+        </top>
+        <bottom style="thin">
           <color indexed="64"/>
-        </horizontal>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3343,6 +3126,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="167" formatCode="0.0000E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="15" formatCode="0.00E+00"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -3731,7 +3518,7 @@
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{A6A726EB-A685-4BC2-A0F0-E9718B181616}" name="q" dataDxfId="85"/>
-    <tableColumn id="6" xr3:uid="{927D24E1-9E8B-4261-B6B2-69EEC925FD98}" name="p" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{927D24E1-9E8B-4261-B6B2-69EEC925FD98}" name="p" dataDxfId="84">
       <calculatedColumnFormula>1-Tabela2[[#This Row],[q]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3740,49 +3527,49 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}" name="Tabela25" displayName="Tabela25" ref="H1:L39" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="H1:L39" xr:uid="{A760864C-441B-4D45-8458-D4E44D37BDC0}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:L39">
     <sortCondition ref="H1:H39"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="82"/>
-    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="81">
+    <tableColumn id="1" xr3:uid="{922456CF-4688-4A7B-B79A-F5CED35271FC}" name="DE" dataDxfId="81"/>
+    <tableColumn id="5" xr3:uid="{B948BD46-0F80-41D0-BE16-D591969D5775}" name="De(barra)" dataDxfId="80">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[DE]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="80"/>
-    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="79">
+    <tableColumn id="2" xr3:uid="{E73D961C-339B-45B9-9730-525AE30076E4}" name="PARA" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{56D5632E-73B6-4F0B-8782-BCAFB2A6E4C3}" name="Para(barra)" dataDxfId="78">
       <calculatedColumnFormula>VLOOKUP(Tabela25[[#This Row],[PARA]],CHOOSE({1,2},Barras!$B$2:$B$161,Barras!$A$2:$A$161),2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{C46EB45B-6AB6-4ADA-A276-95123313AF32}" name="q" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="77" dataDxfId="75" totalsRowDxfId="73" headerRowBorderDxfId="76" tableBorderDxfId="74" totalsRowBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}" name="Tabela6" displayName="Tabela6" ref="B1:J8" totalsRowCount="1" headerRowDxfId="76" dataDxfId="74" totalsRowDxfId="72" headerRowBorderDxfId="75" tableBorderDxfId="73" totalsRowBorderDxfId="71">
   <autoFilter ref="B1:J7" xr:uid="{82B79D8B-2802-4C3A-BA1C-7350890728F3}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="71" totalsRowDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="69" totalsRowDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="1" xr3:uid="{E0DDD699-B14A-48E3-8A4D-92CDD859CB0A}" name="Contingência" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{7E976C01-EA60-4783-93D1-F55015E78DC4}" name="De1" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{CFAA91F6-DFEF-4E90-8840-4E5F9AAE45C7}" name="Barra (de)" dataDxfId="66" totalsRowDxfId="65">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="65" totalsRowDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="4" xr3:uid="{E7589C51-2B8A-47AA-A7B8-E995C518ED08}" name="Para1" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{60B78CE9-C734-4759-B01D-46C0A71C4E17}" name="Barra (para)" dataDxfId="62" totalsRowDxfId="61">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela6[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="53" totalsRowDxfId="61"/>
-    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="52" totalsRowDxfId="60">
+    <tableColumn id="6" xr3:uid="{0BF3B21B-6BFA-43BD-B173-FA5FF5328708}" name="Severidade" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{C92B17CD-9FE6-4C7B-995E-1933C1FAFA7C}" name="Q" totalsRowFunction="custom" dataDxfId="58" totalsRowDxfId="57">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela6[[#Totals],[P]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="50" totalsRowDxfId="59">
+    <tableColumn id="7" xr3:uid="{66324C88-E987-435D-8432-6F955D76832C}" name="P" totalsRowFunction="custom" dataDxfId="56" totalsRowDxfId="55">
       <calculatedColumnFormula>1-Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela6[P])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="51" totalsRowDxfId="58">
+    <tableColumn id="8" xr3:uid="{A9439FEC-1AF2-43F1-9F22-B0A52DAD19D7}" name="Resultando" totalsRowFunction="custom" dataDxfId="54" totalsRowDxfId="53">
       <calculatedColumnFormula>Tabela6[[#This Row],[P]]+Tabela6[[#This Row],[Q]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela6[[#Totals],[P]]+Tabela6[[#Totals],[Q]]</totalsRowFormula>
     </tableColumn>
@@ -3792,45 +3579,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="23" dataDxfId="21" totalsRowDxfId="22" headerRowBorderDxfId="57" tableBorderDxfId="56" totalsRowBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}" name="Tabela14" displayName="Tabela14" ref="B1:P33" totalsRowCount="1" headerRowDxfId="52" dataDxfId="50" totalsRowDxfId="48" headerRowBorderDxfId="51" tableBorderDxfId="49" totalsRowBorderDxfId="47">
   <autoFilter ref="B1:P32" xr:uid="{00F02243-AE44-43D1-9968-C648A54CF3A3}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:F23">
     <sortCondition ref="B1:B23"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="49" totalsRowDxfId="48"/>
-    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="47" totalsRowDxfId="46"/>
-    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="1" xr3:uid="{530266C4-22F8-4B35-94CC-F58F4DAC4C3A}" name="Contingência" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{DBC54C2F-8ADF-4787-81A9-7040633E7F29}" name="De1" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{02D8AC41-4D65-4650-9298-D8D4E7BD45E6}" name="Barra (de)1" dataDxfId="42" totalsRowDxfId="41">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="43" totalsRowDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="11" xr3:uid="{7839710F-F757-4CBE-BB48-0F7A451493B9}" name="Para1" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="12" xr3:uid="{7E2A081F-15DD-4193-A1B9-6A221EB9D4D7}" name="Barra (para)1" dataDxfId="38" totalsRowDxfId="37">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para1]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="19" totalsRowDxfId="37">
+    <tableColumn id="4" xr3:uid="{20936AFD-E691-4EF3-8EE7-0D580D166D93}" name="Severidade" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{07B4F78E-E8D4-404A-A4B7-0DE785AF559F}" name="Q1" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="34" totalsRowDxfId="33">
+    <tableColumn id="3" xr3:uid="{F153D764-5207-4BC1-B058-DEF77DC88108}" name="De2" dataDxfId="32" totalsRowDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{C79C7F39-1E65-4A10-9F3E-7099AAEB4D9E}" name="Barra (de)2" dataDxfId="30" totalsRowDxfId="29">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[De2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="9" xr3:uid="{1968FD62-F6C9-452F-B326-57551F16AE65}" name="Para2" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{B471B155-F718-411A-B2B1-6059282E00EF}" name="Barra (para)2" dataDxfId="26" totalsRowDxfId="25">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="20" totalsRowDxfId="28">
+    <tableColumn id="14" xr3:uid="{4B5CF982-7C1E-40D4-9401-6C8E7F97B540}" name="Q2" dataDxfId="24" totalsRowDxfId="23">
       <calculatedColumnFormula array="1">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="2" xr3:uid="{D2547EB0-973A-4D5D-A654-0FB052764852}" name="Q Eq" totalsRowFunction="custom" dataDxfId="22" totalsRowDxfId="21">
       <calculatedColumnFormula>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</calculatedColumnFormula>
       <totalsRowFormula>1-Tabela14[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="25">
+    <tableColumn id="13" xr3:uid="{017C9514-1592-48BE-86A8-5CDEEF168B6F}" name="P Eq" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="19">
       <calculatedColumnFormula>1-Tabela14[[#This Row],[Q Eq]]</calculatedColumnFormula>
       <totalsRowFormula>PRODUCT(Tabela14[P Eq])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="24">
+    <tableColumn id="15" xr3:uid="{A844C50B-09C8-475F-9D4A-41BEBD8F159B}" name="Resultando" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</calculatedColumnFormula>
       <totalsRowFormula>Tabela14[[#Totals],[P Eq]]+Tabela14[[#Totals],[Q Eq]]</totalsRowFormula>
     </tableColumn>
@@ -3840,7 +3627,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE815A5B-3F9F-44C2-ABCE-D7259C1B9B03}" name="Tabela1" displayName="Tabela1" ref="A1:G39" totalsRowCount="1" headerRowDxfId="1" dataDxfId="16" totalsRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EE815A5B-3F9F-44C2-ABCE-D7259C1B9B03}" name="Tabela1" displayName="Tabela1" ref="A1:G39" totalsRowCount="1" headerRowDxfId="3" dataDxfId="4" totalsRowDxfId="5">
   <autoFilter ref="A1:G38" xr:uid="{EE815A5B-3F9F-44C2-ABCE-D7259C1B9B03}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -3854,19 +3641,19 @@
     <sortCondition ref="A1:A38"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F46BB00B-1216-4FC5-B885-0C81B6AB70C0}" name="Contingência" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{58BC1C2E-96B4-4F1B-9B8E-0641B7D47B14}" name="De1" dataDxfId="13" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{37A2E1D3-5BCB-4114-9054-A824C7C16CF2}" name="Para1" dataDxfId="11" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{E7AC2D74-67D4-421E-94E4-24543CF7A131}" name="De2" dataDxfId="9" totalsRowDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{D8AE2BBC-11F2-458D-8B04-951127A16887}" name="Para2" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{62BF668A-DFF5-41BE-AA76-56496FDFC9E4}" name="Q Eq" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="1" xr3:uid="{F46BB00B-1216-4FC5-B885-0C81B6AB70C0}" name="Contingência" totalsRowLabel="Total" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{58BC1C2E-96B4-4F1B-9B8E-0641B7D47B14}" name="De1" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{37A2E1D3-5BCB-4114-9054-A824C7C16CF2}" name="Para1" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{E7AC2D74-67D4-421E-94E4-24543CF7A131}" name="De2" dataDxfId="10" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{D8AE2BBC-11F2-458D-8B04-951127A16887}" name="Para2" dataDxfId="2" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{62BF668A-DFF5-41BE-AA76-56496FDFC9E4}" name="Q Eq" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="7">
       <totalsRowFormula>1-Tabela1[[#Totals],[P Eq]]</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{BFBDC13E-2BCA-4154-A931-73A3462E7C8C}" name="P Eq" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="7" xr3:uid="{BFBDC13E-2BCA-4154-A931-73A3462E7C8C}" name="P Eq" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="6">
       <totalsRowFormula>PRODUCT(Tabela1[P Eq])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -24421,7 +24208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82AF1F68-5056-431B-ACEC-1B889C462C97}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F39"/>
     </sheetView>
   </sheetViews>
@@ -24432,7 +24219,7 @@
     <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="25" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14" style="1" bestFit="1" customWidth="1"/>
@@ -24461,7 +24248,7 @@
       <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="25" t="s">
         <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -24498,7 +24285,7 @@
       <c r="E2" s="2">
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99972117000000005</v>
       </c>
@@ -24538,7 +24325,7 @@
       <c r="E3" s="2">
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99874229999999997</v>
       </c>
@@ -24578,7 +24365,7 @@
       <c r="E4" s="2">
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99913352</v>
       </c>
@@ -24618,7 +24405,7 @@
       <c r="E5" s="2">
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99884439999999997</v>
       </c>
@@ -24658,7 +24445,7 @@
       <c r="E6" s="2">
         <v>8.5125999999999995E-4</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99914873999999998</v>
       </c>
@@ -24698,7 +24485,7 @@
       <c r="E7" s="2">
         <v>1.6475999999999999E-4</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99983524000000001</v>
       </c>
@@ -24738,7 +24525,7 @@
       <c r="E8" s="2">
         <v>4.2778E-4</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99957222000000001</v>
       </c>
@@ -24778,7 +24565,7 @@
       <c r="E9" s="2">
         <v>1.1535E-3</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99884649999999997</v>
       </c>
@@ -24818,7 +24605,7 @@
       <c r="E10" s="2">
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99875950000000002</v>
       </c>
@@ -24858,7 +24645,7 @@
       <c r="E11" s="2">
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99932162999999996</v>
       </c>
@@ -24898,7 +24685,7 @@
       <c r="E12" s="2">
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99969019000000003</v>
       </c>
@@ -24938,7 +24725,7 @@
       <c r="E13" s="2">
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.998973</v>
       </c>
@@ -24978,7 +24765,7 @@
       <c r="E14" s="2">
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99900095</v>
       </c>
@@ -25018,7 +24805,7 @@
       <c r="E15" s="2">
         <v>3.8747E-4</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99961253000000005</v>
       </c>
@@ -25058,7 +24845,7 @@
       <c r="E16" s="2">
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99874719999999995</v>
       </c>
@@ -25098,7 +24885,7 @@
       <c r="E17" s="2">
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="F17" s="29">
+      <c r="F17" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99873540000000005</v>
       </c>
@@ -25138,7 +24925,7 @@
       <c r="E18" s="2">
         <v>1.9623000000000001E-4</v>
       </c>
-      <c r="F18" s="29">
+      <c r="F18" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99980376999999998</v>
       </c>
@@ -25178,7 +24965,7 @@
       <c r="E19" s="2">
         <v>1.4509000000000001E-4</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99985491000000004</v>
       </c>
@@ -25218,7 +25005,7 @@
       <c r="E20" s="2">
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F20" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99845779999999995</v>
       </c>
@@ -25258,7 +25045,7 @@
       <c r="E21" s="2">
         <v>3.1766999999999999E-4</v>
       </c>
-      <c r="F21" s="29">
+      <c r="F21" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99968232999999995</v>
       </c>
@@ -25298,7 +25085,7 @@
       <c r="E22" s="2">
         <v>9.1901999999999999E-4</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99908098000000001</v>
       </c>
@@ -25338,7 +25125,7 @@
       <c r="E23" s="2">
         <v>8.2081000000000005E-4</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99917918999999999</v>
       </c>
@@ -25378,7 +25165,7 @@
       <c r="E24" s="2">
         <v>4.4252000000000001E-4</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99955748</v>
       </c>
@@ -25418,7 +25205,7 @@
       <c r="E25" s="2">
         <v>2.9751000000000002E-4</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99970249</v>
       </c>
@@ -25458,7 +25245,7 @@
       <c r="E26" s="2">
         <v>6.5850000000000001E-4</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99934149999999999</v>
       </c>
@@ -25498,7 +25285,7 @@
       <c r="E27" s="2">
         <v>4.2973000000000002E-4</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99957026999999998</v>
       </c>
@@ -25538,7 +25325,7 @@
       <c r="E28" s="2">
         <v>3.3626000000000001E-4</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99966374000000002</v>
       </c>
@@ -25578,7 +25365,7 @@
       <c r="E29" s="2">
         <v>3.4675999999999999E-4</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99965324</v>
       </c>
@@ -25618,7 +25405,7 @@
       <c r="E30" s="2">
         <v>1.9550000000000001E-4</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99980449999999998</v>
       </c>
@@ -25658,7 +25445,7 @@
       <c r="E31" s="2">
         <v>2.1504E-4</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99978495999999994</v>
       </c>
@@ -25698,7 +25485,7 @@
       <c r="E32" s="2">
         <v>2.7589E-5</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99997241100000001</v>
       </c>
@@ -25738,7 +25525,7 @@
       <c r="E33" s="2">
         <v>1.4266999999999999E-4</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99985732999999999</v>
       </c>
@@ -25778,7 +25565,7 @@
       <c r="E34" s="2">
         <v>5.6384999999999996E-4</v>
       </c>
-      <c r="F34" s="29">
+      <c r="F34" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99943614999999997</v>
       </c>
@@ -25818,7 +25605,7 @@
       <c r="E35" s="2">
         <v>2.6751999999999999E-4</v>
       </c>
-      <c r="F35" s="29">
+      <c r="F35" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99973248000000003</v>
       </c>
@@ -25858,7 +25645,7 @@
       <c r="E36" s="2">
         <v>1.2668E-4</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F36" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99987331999999995</v>
       </c>
@@ -25898,7 +25685,7 @@
       <c r="E37" s="2">
         <v>6.1218999999999998E-4</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F37" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99938780999999999</v>
       </c>
@@ -25938,7 +25725,7 @@
       <c r="E38" s="2">
         <v>2.1210000000000001E-4</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F38" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99978789999999995</v>
       </c>
@@ -25978,7 +25765,7 @@
       <c r="E39" s="2">
         <v>4.3374E-4</v>
       </c>
-      <c r="F39" s="29">
+      <c r="F39" s="25">
         <f>1-Tabela2[[#This Row],[q]]</f>
         <v>0.99956626000000004</v>
       </c>
@@ -26100,7 +25887,7 @@
       <c r="C2" s="1">
         <v>9.6</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="34" t="s">
         <v>98</v>
       </c>
       <c r="E2" s="1">
@@ -26118,7 +25905,7 @@
       <c r="I2" s="1">
         <v>897</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="35" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="8">
@@ -26153,7 +25940,7 @@
       <c r="C3" s="1">
         <v>5.5</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="1">
         <v>13</v>
       </c>
@@ -26169,7 +25956,7 @@
       <c r="I3" s="1">
         <v>959</v>
       </c>
-      <c r="K3" s="27"/>
+      <c r="K3" s="35"/>
       <c r="L3" s="8">
         <v>517</v>
       </c>
@@ -26202,7 +25989,7 @@
       <c r="C4" s="1">
         <v>5.2</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="1">
         <v>24</v>
       </c>
@@ -26218,7 +26005,7 @@
       <c r="I4" s="1">
         <v>979</v>
       </c>
-      <c r="K4" s="27"/>
+      <c r="K4" s="35"/>
       <c r="L4" s="8">
         <v>508</v>
       </c>
@@ -26251,7 +26038,7 @@
       <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="1">
         <v>20</v>
       </c>
@@ -26267,7 +26054,7 @@
       <c r="I5" s="1">
         <v>976</v>
       </c>
-      <c r="K5" s="27"/>
+      <c r="K5" s="35"/>
       <c r="L5" s="8">
         <v>352</v>
       </c>
@@ -26300,7 +26087,7 @@
       <c r="C6" s="1">
         <v>3.5</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="1">
         <v>23</v>
       </c>
@@ -26316,7 +26103,7 @@
       <c r="I6" s="1">
         <v>964</v>
       </c>
-      <c r="K6" s="27"/>
+      <c r="K6" s="35"/>
       <c r="L6" s="8">
         <v>349</v>
       </c>
@@ -26361,7 +26148,7 @@
       <c r="I7" s="1">
         <v>979</v>
       </c>
-      <c r="K7" s="27"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="8">
         <v>487</v>
       </c>
@@ -26394,7 +26181,7 @@
       <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="K8" s="27"/>
+      <c r="K8" s="35"/>
       <c r="L8" s="8">
         <v>528</v>
       </c>
@@ -26427,7 +26214,7 @@
       <c r="C9" s="1">
         <v>2.6</v>
       </c>
-      <c r="K9" s="27"/>
+      <c r="K9" s="35"/>
       <c r="L9" s="8">
         <v>449</v>
       </c>
@@ -26490,7 +26277,7 @@
       <c r="C10" s="1">
         <v>2.4</v>
       </c>
-      <c r="K10" s="27"/>
+      <c r="K10" s="35"/>
       <c r="L10" s="8">
         <v>470</v>
       </c>
@@ -26523,7 +26310,7 @@
       <c r="C11" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K11" s="27"/>
+      <c r="K11" s="35"/>
       <c r="L11" s="8">
         <v>538</v>
       </c>
@@ -26556,7 +26343,7 @@
       <c r="C12" s="1">
         <v>1.2</v>
       </c>
-      <c r="K12" s="27"/>
+      <c r="K12" s="35"/>
       <c r="L12" s="8">
         <v>507</v>
       </c>
@@ -26589,7 +26376,7 @@
       <c r="C13" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K13" s="27"/>
+      <c r="K13" s="35"/>
       <c r="L13" s="8">
         <v>297</v>
       </c>
@@ -26622,7 +26409,7 @@
       <c r="C14" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K14" s="27"/>
+      <c r="K14" s="35"/>
       <c r="L14" s="8">
         <v>476</v>
       </c>
@@ -26655,7 +26442,7 @@
       <c r="C15" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K15" s="27"/>
+      <c r="K15" s="35"/>
       <c r="L15" s="8">
         <v>269</v>
       </c>
@@ -26688,7 +26475,7 @@
       <c r="C16" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K16" s="27"/>
+      <c r="K16" s="35"/>
       <c r="L16" s="8">
         <v>448</v>
       </c>
@@ -26721,7 +26508,7 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="27"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="8">
         <v>542</v>
       </c>
@@ -26745,7 +26532,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K18" s="27"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="8">
         <v>539</v>
       </c>
@@ -26769,7 +26556,7 @@
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K19" s="27"/>
+      <c r="K19" s="35"/>
       <c r="L19" s="8">
         <v>272</v>
       </c>
@@ -26793,7 +26580,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K20" s="27"/>
+      <c r="K20" s="35"/>
       <c r="L20" s="8">
         <v>541</v>
       </c>
@@ -26817,7 +26604,7 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K21" s="27"/>
+      <c r="K21" s="35"/>
       <c r="L21" s="8">
         <v>353</v>
       </c>
@@ -26841,7 +26628,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K22" s="27"/>
+      <c r="K22" s="35"/>
       <c r="L22" s="8">
         <v>468</v>
       </c>
@@ -26865,7 +26652,7 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K23" s="27" t="s">
+      <c r="K23" s="35" t="s">
         <v>104</v>
       </c>
       <c r="L23" s="8">
@@ -26887,7 +26674,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K24" s="27"/>
+      <c r="K24" s="35"/>
       <c r="L24" s="8">
         <v>529</v>
       </c>
@@ -26907,7 +26694,7 @@
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K25" s="27"/>
+      <c r="K25" s="35"/>
       <c r="L25" s="8">
         <v>467</v>
       </c>
@@ -26927,7 +26714,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K26" s="27"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="8">
         <v>446</v>
       </c>
@@ -26947,7 +26734,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K27" s="27"/>
+      <c r="K27" s="35"/>
       <c r="L27" s="8">
         <v>444</v>
       </c>
@@ -26967,7 +26754,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K28" s="27"/>
+      <c r="K28" s="35"/>
       <c r="L28" s="8">
         <v>377</v>
       </c>
@@ -26987,7 +26774,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K29" s="27"/>
+      <c r="K29" s="35"/>
       <c r="L29" s="8">
         <v>375</v>
       </c>
@@ -27007,7 +26794,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K30" s="27"/>
+      <c r="K30" s="35"/>
       <c r="L30" s="8">
         <v>326</v>
       </c>
@@ -27027,7 +26814,7 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K31" s="27"/>
+      <c r="K31" s="35"/>
       <c r="L31" s="8">
         <v>324</v>
       </c>
@@ -27047,7 +26834,7 @@
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K32" s="27"/>
+      <c r="K32" s="35"/>
       <c r="L32" s="8">
         <v>320</v>
       </c>
@@ -27114,7 +26901,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I7"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27165,7 +26952,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="15">
@@ -27188,11 +26975,11 @@
       <c r="G2" s="8">
         <v>8.5</v>
       </c>
-      <c r="H2" s="30">
+      <c r="H2" s="26">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="26">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99969019000000003</v>
       </c>
@@ -27210,7 +26997,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="15">
         <v>13</v>
       </c>
@@ -27231,11 +27018,11 @@
       <c r="G3" s="8">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="26">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="26">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99932162999999996</v>
       </c>
@@ -27253,7 +27040,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="15">
         <v>24</v>
       </c>
@@ -27274,11 +27061,11 @@
       <c r="G4" s="8">
         <v>3</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="26">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="26">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99845779999999995</v>
       </c>
@@ -27296,7 +27083,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="15">
         <v>20</v>
       </c>
@@ -27317,11 +27104,11 @@
       <c r="G5" s="8">
         <v>1.4</v>
       </c>
-      <c r="H5" s="30">
+      <c r="H5" s="26">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.8747E-4</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="26">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99961253000000005</v>
       </c>
@@ -27339,7 +27126,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="15">
         <v>23</v>
       </c>
@@ -27360,11 +27147,11 @@
       <c r="G6" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="26">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="26">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99874719999999995</v>
       </c>
@@ -27403,11 +27190,11 @@
         <v>NSRITA-RS525</v>
       </c>
       <c r="G7" s="8"/>
-      <c r="H7" s="30">
+      <c r="H7" s="26">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela6[[#This Row],[De1]]&amp;Tabela6[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="26">
         <f>1-Tabela6[[#This Row],[Q]]</f>
         <v>0.99873540000000005</v>
       </c>
@@ -27496,8 +27283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7244C713-9829-49D0-8F24-8024894247D5}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O32"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27505,15 +27292,15 @@
     <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
@@ -27576,7 +27363,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="43" t="s">
         <v>98</v>
       </c>
       <c r="B2" s="8">
@@ -27599,7 +27386,7 @@
       <c r="G2" s="8">
         <v>9.6</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="28">
         <f t="array" ref="H2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27617,19 +27404,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M2" s="32">
+      <c r="M2" s="28">
         <f t="array" ref="M2">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N2" s="32">
+      <c r="N2" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O2" s="31">
+      <c r="O2" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27647,9 +27434,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A3" s="44"/>
       <c r="B3" s="8">
         <v>517</v>
       </c>
@@ -27670,7 +27455,7 @@
       <c r="G3" s="8">
         <v>5.5</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="28">
         <f t="array" ref="H3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27688,19 +27473,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC230</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="28">
         <f t="array" ref="M3">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P3" s="31">
+      <c r="P3" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27718,9 +27503,7 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A4" s="44"/>
       <c r="B4" s="8">
         <v>508</v>
       </c>
@@ -27741,7 +27524,7 @@
       <c r="G4" s="8">
         <v>5.2</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="28">
         <f t="array" ref="H4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -27759,19 +27542,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="28">
         <f t="array" ref="M4">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N4" s="32">
+      <c r="N4" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27789,9 +27572,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A5" s="44"/>
       <c r="B5" s="8">
         <v>352</v>
       </c>
@@ -27812,7 +27593,7 @@
       <c r="G5" s="8">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="28">
         <f t="array" ref="H5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
@@ -27830,19 +27611,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="28">
         <f t="array" ref="M5">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P5" s="31">
+      <c r="P5" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27860,9 +27641,7 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A6" s="44"/>
       <c r="B6" s="8">
         <v>349</v>
       </c>
@@ -27883,7 +27662,7 @@
       <c r="G6" s="8">
         <v>3.5</v>
       </c>
-      <c r="H6" s="32">
+      <c r="H6" s="28">
         <f t="array" ref="H6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
@@ -27901,19 +27680,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="28">
         <f t="array" ref="M6">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P6" s="31">
+      <c r="P6" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -27931,9 +27710,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A7" s="44"/>
       <c r="B7" s="8">
         <v>487</v>
       </c>
@@ -27954,7 +27731,7 @@
       <c r="G7" s="8">
         <v>3.2</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="28">
         <f t="array" ref="H7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.3626000000000001E-4</v>
       </c>
@@ -27972,19 +27749,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="28">
         <f t="array" ref="M7">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>3.3626000000000001E-4</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.1307078760000001E-7</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999988692921238</v>
       </c>
-      <c r="P7" s="31">
+      <c r="P7" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28002,9 +27779,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A8" s="44"/>
       <c r="B8" s="8">
         <v>528</v>
       </c>
@@ -28025,7 +27800,7 @@
       <c r="G8" s="8">
         <v>3.2</v>
       </c>
-      <c r="H8" s="32">
+      <c r="H8" s="28">
         <f t="array" ref="H8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28043,19 +27818,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SIDERO-SC230</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="28">
         <f t="array" ref="M8">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28073,9 +27848,7 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A9" s="44"/>
       <c r="B9" s="8">
         <v>449</v>
       </c>
@@ -28096,7 +27869,7 @@
       <c r="G9" s="8">
         <v>2.6</v>
       </c>
-      <c r="H9" s="32">
+      <c r="H9" s="28">
         <f t="array" ref="H9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -28114,19 +27887,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="28">
         <f t="array" ref="M9">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P9" s="31">
+      <c r="P9" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28144,9 +27917,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A10" s="44"/>
       <c r="B10" s="8">
         <v>470</v>
       </c>
@@ -28167,7 +27938,7 @@
       <c r="G10" s="8">
         <v>2.5</v>
       </c>
-      <c r="H10" s="32">
+      <c r="H10" s="28">
         <f t="array" ref="H10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -28185,19 +27956,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JOINOR-SC230</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="28">
         <f t="array" ref="M10">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P10" s="31">
+      <c r="P10" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28215,9 +27986,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A11" s="44"/>
       <c r="B11" s="8">
         <v>538</v>
       </c>
@@ -28238,7 +28007,7 @@
       <c r="G11" s="8">
         <v>2.4</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="28">
         <f t="array" ref="H11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28256,19 +28025,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>XANXER-SC230</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="28">
         <f t="array" ref="M11">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28286,9 +28055,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A12" s="44"/>
       <c r="B12" s="8">
         <v>507</v>
       </c>
@@ -28309,7 +28076,7 @@
       <c r="G12" s="8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H12" s="32">
+      <c r="H12" s="28">
         <f t="array" ref="H12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
@@ -28327,19 +28094,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="28">
         <f t="array" ref="M12">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1535E-3</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866943774995</v>
       </c>
-      <c r="P12" s="31">
+      <c r="P12" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28357,9 +28124,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A13" s="44"/>
       <c r="B13" s="8">
         <v>297</v>
       </c>
@@ -28380,7 +28145,7 @@
       <c r="G13" s="8">
         <v>1.8</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="28">
         <f t="array" ref="H13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.9751000000000002E-4</v>
       </c>
@@ -28398,19 +28163,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="28">
         <f t="array" ref="M13">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.9751000000000002E-4</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>8.8512200100000011E-8</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999991148779988</v>
       </c>
-      <c r="P13" s="31">
+      <c r="P13" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28428,9 +28193,7 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A14" s="44"/>
       <c r="B14" s="8">
         <v>476</v>
       </c>
@@ -28451,7 +28214,7 @@
       <c r="G14" s="8">
         <v>1.7</v>
       </c>
-      <c r="H14" s="32">
+      <c r="H14" s="28">
         <f t="array" ref="H14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -28469,19 +28232,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>AREIA--PR525</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="28">
         <f t="array" ref="M14">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P14" s="31">
+      <c r="P14" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28499,9 +28262,7 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A15" s="44"/>
       <c r="B15" s="8">
         <v>269</v>
       </c>
@@ -28522,7 +28283,7 @@
       <c r="G15" s="8">
         <v>1.2</v>
       </c>
-      <c r="H15" s="32">
+      <c r="H15" s="28">
         <f t="array" ref="H15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
@@ -28540,19 +28301,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="28">
         <f t="array" ref="M15">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O15" s="31">
+      <c r="O15" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P15" s="31">
+      <c r="P15" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28570,9 +28331,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A16" s="44"/>
       <c r="B16" s="8">
         <v>448</v>
       </c>
@@ -28593,7 +28352,7 @@
       <c r="G16" s="8">
         <v>1.2</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="28">
         <f t="array" ref="H16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -28611,19 +28370,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BATEIA-PR525</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="28">
         <f t="array" ref="M16">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O16" s="31">
+      <c r="O16" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P16" s="31">
+      <c r="P16" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28641,9 +28400,7 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A17" s="44"/>
       <c r="B17" s="8">
         <v>542</v>
       </c>
@@ -28664,7 +28421,7 @@
       <c r="G17" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H17" s="32">
+      <c r="H17" s="28">
         <f t="array" ref="H17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28682,19 +28439,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>MCLARO-RS230</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="28">
         <f t="array" ref="M17">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N17" s="32">
+      <c r="N17" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O17" s="31">
+      <c r="O17" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P17" s="31">
+      <c r="P17" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28712,9 +28469,7 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A18" s="44"/>
       <c r="B18" s="8">
         <v>539</v>
       </c>
@@ -28735,7 +28490,7 @@
       <c r="G18" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="28">
         <f t="array" ref="H18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28753,19 +28508,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>JLAC-B-SC230</v>
       </c>
-      <c r="M18" s="32">
+      <c r="M18" s="28">
         <f t="array" ref="M18">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N18" s="32">
+      <c r="N18" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O18" s="31">
+      <c r="O18" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P18" s="31">
+      <c r="P18" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28783,9 +28538,7 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A19" s="44"/>
       <c r="B19" s="8">
         <v>272</v>
       </c>
@@ -28806,7 +28559,7 @@
       <c r="G19" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H19" s="32">
+      <c r="H19" s="28">
         <f t="array" ref="H19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
@@ -28824,19 +28577,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="28">
         <f t="array" ref="M19">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>2.7882999999999998E-4</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999992225383105</v>
       </c>
-      <c r="P19" s="31">
+      <c r="P19" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28854,9 +28607,7 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A20" s="44"/>
       <c r="B20" s="8">
         <v>541</v>
       </c>
@@ -28877,7 +28628,7 @@
       <c r="G20" s="8">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="32">
+      <c r="H20" s="28">
         <f t="array" ref="H20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -28895,19 +28646,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>PFUNDO-RS230</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="28">
         <f t="array" ref="M20">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N20" s="32">
+      <c r="N20" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O20" s="31">
+      <c r="O20" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P20" s="31">
+      <c r="P20" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28925,9 +28676,7 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A21" s="44"/>
       <c r="B21" s="8">
         <v>353</v>
       </c>
@@ -28948,7 +28697,7 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="32">
+      <c r="H21" s="28">
         <f t="array" ref="H21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
@@ -28966,19 +28715,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="28">
         <f t="array" ref="M21">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>8.6647999999999998E-4</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999924921240957</v>
       </c>
-      <c r="P21" s="31">
+      <c r="P21" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -28996,9 +28745,7 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="A22" s="45"/>
       <c r="B22" s="8">
         <v>468</v>
       </c>
@@ -29019,7 +28766,7 @@
       <c r="G22" s="8">
         <v>1</v>
       </c>
-      <c r="H22" s="32">
+      <c r="H22" s="28">
         <f t="array" ref="H22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -29037,19 +28784,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CAXIAS-RS525</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="28">
         <f t="array" ref="M22">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O22" s="31">
+      <c r="O22" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P22" s="31">
+      <c r="P22" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29067,7 +28814,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="46" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="8">
@@ -29088,7 +28835,7 @@
         <v>CASCOE-PR525</v>
       </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="32">
+      <c r="H23" s="28">
         <f t="array" ref="H23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
@@ -29106,19 +28853,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>SCAXIA-PR525</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="28">
         <f t="array" ref="M23">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.0269999999999999E-3</v>
       </c>
-      <c r="N23" s="32">
+      <c r="N23" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.0547289999999998E-6</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999894527099997</v>
       </c>
-      <c r="P23" s="31">
+      <c r="P23" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29136,9 +28883,7 @@
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A24" s="47"/>
       <c r="B24" s="8">
         <v>529</v>
       </c>
@@ -29157,7 +28902,7 @@
         <v>CAXIAS-RS525</v>
       </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="32">
+      <c r="H24" s="28">
         <f t="array" ref="H24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
@@ -29175,19 +28920,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>NSRITA-RS525</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="28">
         <f t="array" ref="M24">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>9.9905000000000002E-4</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999900189909752</v>
       </c>
-      <c r="P24" s="31">
+      <c r="P24" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29205,9 +28950,7 @@
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A25" s="47"/>
       <c r="B25" s="8">
         <v>467</v>
       </c>
@@ -29226,7 +28969,7 @@
         <v>CNOVOS-SC525</v>
       </c>
       <c r="G25" s="8"/>
-      <c r="H25" s="32">
+      <c r="H25" s="28">
         <f t="array" ref="H25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
@@ -29244,19 +28987,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="28">
         <f t="array" ref="M25">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2405000000000001E-3</v>
       </c>
-      <c r="N25" s="32">
+      <c r="N25" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="O25" s="31">
+      <c r="O25" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999846115975</v>
       </c>
-      <c r="P25" s="31">
+      <c r="P25" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29274,9 +29017,7 @@
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A26" s="47"/>
       <c r="B26" s="8">
         <v>446</v>
       </c>
@@ -29295,7 +29036,7 @@
         <v>BIGUAC-SC525</v>
       </c>
       <c r="G26" s="8"/>
-      <c r="H26" s="32">
+      <c r="H26" s="28">
         <f t="array" ref="H26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -29313,19 +29054,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="28">
         <f t="array" ref="M26">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O26" s="31">
+      <c r="O26" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29343,9 +29084,7 @@
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A27" s="47"/>
       <c r="B27" s="8">
         <v>444</v>
       </c>
@@ -29364,7 +29103,7 @@
         <v>BIGUAC-SC525</v>
       </c>
       <c r="G27" s="8"/>
-      <c r="H27" s="32">
+      <c r="H27" s="28">
         <f t="array" ref="H27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
@@ -29382,19 +29121,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="28">
         <f t="array" ref="M27">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>4.2778E-4</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="O27" s="31">
+      <c r="O27" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999981700427165</v>
       </c>
-      <c r="P27" s="31">
+      <c r="P27" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29412,9 +29151,7 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A28" s="47"/>
       <c r="B28" s="8">
         <v>377</v>
       </c>
@@ -29433,7 +29170,7 @@
         <v>CURITI-PR525</v>
       </c>
       <c r="G28" s="8"/>
-      <c r="H28" s="32">
+      <c r="H28" s="28">
         <f t="array" ref="H28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
@@ -29451,19 +29188,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="28">
         <f t="array" ref="M28">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P28" s="31">
+      <c r="P28" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29481,9 +29218,7 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A29" s="47"/>
       <c r="B29" s="8">
         <v>375</v>
       </c>
@@ -29502,7 +29237,7 @@
         <v>CURITI-PR525</v>
       </c>
       <c r="G29" s="8"/>
-      <c r="H29" s="32">
+      <c r="H29" s="28">
         <f t="array" ref="H29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
@@ -29520,19 +29255,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CNOVOS-SC525</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="28">
         <f t="array" ref="M29">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.1555999999999999E-3</v>
       </c>
-      <c r="N29" s="32">
+      <c r="N29" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="O29" s="31">
+      <c r="O29" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999866458863995</v>
       </c>
-      <c r="P29" s="31">
+      <c r="P29" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29550,9 +29285,7 @@
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A30" s="47"/>
       <c r="B30" s="8">
         <v>326</v>
       </c>
@@ -29571,7 +29304,7 @@
         <v>BATEIA-PR525</v>
       </c>
       <c r="G30" s="8"/>
-      <c r="H30" s="32">
+      <c r="H30" s="28">
         <f t="array" ref="H30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
@@ -29589,19 +29322,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>BIGUAC-SC525</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="28">
         <f t="array" ref="M30">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N30" s="32">
+      <c r="N30" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P30" s="31">
+      <c r="P30" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29619,9 +29352,7 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A31" s="47"/>
       <c r="B31" s="8">
         <v>324</v>
       </c>
@@ -29640,7 +29371,7 @@
         <v>BATEIA-PR525</v>
       </c>
       <c r="G31" s="8"/>
-      <c r="H31" s="32">
+      <c r="H31" s="28">
         <f t="array" ref="H31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
@@ -29658,19 +29389,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="28">
         <f t="array" ref="M31">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N31" s="32">
+      <c r="N31" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O31" s="31">
+      <c r="O31" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P31" s="31">
+      <c r="P31" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29688,9 +29419,7 @@
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>104</v>
-      </c>
+      <c r="A32" s="48"/>
       <c r="B32" s="8">
         <v>320</v>
       </c>
@@ -29709,7 +29438,7 @@
         <v>BATEIA-PR525</v>
       </c>
       <c r="G32" s="8"/>
-      <c r="H32" s="32">
+      <c r="H32" s="28">
         <f t="array" ref="H32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
@@ -29727,19 +29456,19 @@
         <f>IFERROR(VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra DE]:[Nome DE]],2,0),VLOOKUP(Tabela14[[#This Row],[Para2]],Tabela5[[Barra PARA]:[Nome PARA]],2,0))</f>
         <v>CURITI-PR525</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="28">
         <f t="array" ref="M32">IFERROR(INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela2[De(barra)]&amp;Tabela2[Para(barra)],0)),INDEX(Tabela2[q],MATCH(Tabela14[[#This Row],[De1]]&amp;Tabela14[[#This Row],[Para1]],Tabela25[De(barra)]&amp;Tabela25[Para(barra)],0)))</f>
         <v>1.2577000000000001E-3</v>
       </c>
-      <c r="N32" s="32">
+      <c r="N32" s="28">
         <f>(Tabela14[[#This Row],[Q2]]*Tabela14[[#This Row],[Q1]])</f>
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="O32" s="31">
+      <c r="O32" s="27">
         <f>1-Tabela14[[#This Row],[Q Eq]]</f>
         <v>0.99999841819071</v>
       </c>
-      <c r="P32" s="31">
+      <c r="P32" s="27">
         <f>Tabela14[[#This Row],[Q Eq]]+Tabela14[[#This Row],[P Eq]]</f>
         <v>1</v>
       </c>
@@ -29783,6 +29512,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A22"/>
+    <mergeCell ref="A23:A32"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -29794,967 +29527,1686 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248FA928-7650-4F61-89A0-85A2030E5DFE}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J39" sqref="J39:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="8" style="33" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.28515625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="33"/>
-    <col min="11" max="12" width="12" style="33" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="33" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="33"/>
+    <col min="1" max="1" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="8" style="29" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.140625" style="29"/>
+    <col min="11" max="12" width="12" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="29"/>
+    <col min="16" max="16" width="12.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="29"/>
+    <col min="21" max="22" width="12.28515625" style="29" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="49" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="35">
+      <c r="P1" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
         <v>5</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="39">
         <v>896</v>
       </c>
-      <c r="C2" s="34">
+      <c r="C2" s="39">
         <v>897</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="50">
         <v>3.0980999999999999E-4</v>
       </c>
-      <c r="G2" s="36">
+      <c r="G2" s="50">
         <v>0.99969019000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35">
+      <c r="P2" s="49">
+        <v>269</v>
+      </c>
+      <c r="Q2" s="39">
+        <v>856</v>
+      </c>
+      <c r="R2" s="39">
+        <v>933</v>
+      </c>
+      <c r="S2" s="39">
+        <v>938</v>
+      </c>
+      <c r="T2" s="39">
+        <v>955</v>
+      </c>
+      <c r="U2" s="50">
+        <v>7.7746168899999996E-8</v>
+      </c>
+      <c r="V2" s="50">
+        <v>0.99999992225383105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="49">
         <v>13</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="39">
         <v>938</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="39">
         <v>959</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3" s="50">
         <v>6.7836999999999997E-4</v>
       </c>
-      <c r="G3" s="36">
+      <c r="G3" s="50">
         <v>0.99932162999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="35">
+      <c r="P3" s="49">
+        <v>272</v>
+      </c>
+      <c r="Q3" s="39">
+        <v>856</v>
+      </c>
+      <c r="R3" s="39">
+        <v>933</v>
+      </c>
+      <c r="S3" s="39">
+        <v>955</v>
+      </c>
+      <c r="T3" s="39">
+        <v>964</v>
+      </c>
+      <c r="U3" s="50">
+        <v>7.7746168899999996E-8</v>
+      </c>
+      <c r="V3" s="50">
+        <v>0.99999992225383105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="49">
         <v>17</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="39">
         <v>955</v>
       </c>
-      <c r="C4" s="34">
+      <c r="C4" s="39">
         <v>979</v>
       </c>
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="50">
         <v>1.2646000000000001E-3</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="50">
         <v>0.99873540000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+      <c r="P4" s="49">
+        <v>297</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>856</v>
+      </c>
+      <c r="R4" s="39">
+        <v>1060</v>
+      </c>
+      <c r="S4" s="39">
+        <v>938</v>
+      </c>
+      <c r="T4" s="39">
+        <v>955</v>
+      </c>
+      <c r="U4" s="50">
+        <v>8.8512200100000011E-8</v>
+      </c>
+      <c r="V4" s="50">
+        <v>0.99999991148779988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="49">
         <v>20</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="39">
         <v>964</v>
       </c>
-      <c r="C5" s="34">
+      <c r="C5" s="39">
         <v>976</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="50">
         <v>3.8747E-4</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="50">
         <v>0.99961253000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="35">
+      <c r="P5" s="49">
+        <v>320</v>
+      </c>
+      <c r="Q5" s="39">
+        <v>933</v>
+      </c>
+      <c r="R5" s="39">
+        <v>895</v>
+      </c>
+      <c r="S5" s="39">
+        <v>933</v>
+      </c>
+      <c r="T5" s="39">
+        <v>959</v>
+      </c>
+      <c r="U5" s="50">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="V5" s="50">
+        <v>0.99999841819071</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="49">
         <v>23</v>
       </c>
-      <c r="B6" s="34">
+      <c r="B6" s="39">
         <v>995</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="39">
         <v>964</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="50">
         <v>1.2528000000000001E-3</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="50">
         <v>0.99874719999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="35">
+      <c r="P6" s="49">
+        <v>324</v>
+      </c>
+      <c r="Q6" s="39">
+        <v>933</v>
+      </c>
+      <c r="R6" s="39">
+        <v>895</v>
+      </c>
+      <c r="S6" s="39">
+        <v>933</v>
+      </c>
+      <c r="T6" s="39">
+        <v>959</v>
+      </c>
+      <c r="U6" s="50">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="V6" s="50">
+        <v>0.99999841819071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="49">
         <v>24</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="39">
         <v>995</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="39">
         <v>979</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="50">
         <v>1.5422000000000001E-3</v>
       </c>
-      <c r="G7" s="36">
+      <c r="G7" s="50">
         <v>0.99845779999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="35">
+      <c r="P7" s="49">
+        <v>326</v>
+      </c>
+      <c r="Q7" s="39">
+        <v>933</v>
+      </c>
+      <c r="R7" s="39">
+        <v>895</v>
+      </c>
+      <c r="S7" s="39">
+        <v>955</v>
+      </c>
+      <c r="T7" s="39">
+        <v>946</v>
+      </c>
+      <c r="U7" s="50">
+        <v>1.5818092900000001E-6</v>
+      </c>
+      <c r="V7" s="50">
+        <v>0.99999841819071</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="49">
         <v>269</v>
       </c>
-      <c r="B8" s="34">
+      <c r="B8" s="39">
         <v>856</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="39">
         <v>933</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="39">
         <v>938</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="39">
         <v>955</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="50">
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="50">
         <v>0.99999992225383105</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="35">
+      <c r="P8" s="49">
+        <v>349</v>
+      </c>
+      <c r="Q8" s="39">
+        <v>933</v>
+      </c>
+      <c r="R8" s="39">
+        <v>955</v>
+      </c>
+      <c r="S8" s="39">
+        <v>938</v>
+      </c>
+      <c r="T8" s="39">
+        <v>946</v>
+      </c>
+      <c r="U8" s="50">
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="V8" s="50">
+        <v>0.99999924921240957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="49">
         <v>272</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="39">
         <v>856</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="39">
         <v>933</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="39">
         <v>955</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="39">
         <v>964</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="50">
         <v>7.7746168899999996E-8</v>
       </c>
-      <c r="G9" s="36">
+      <c r="G9" s="50">
         <v>0.99999992225383105</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="35">
+      <c r="P9" s="49">
+        <v>352</v>
+      </c>
+      <c r="Q9" s="39">
+        <v>933</v>
+      </c>
+      <c r="R9" s="39">
+        <v>955</v>
+      </c>
+      <c r="S9" s="39">
+        <v>955</v>
+      </c>
+      <c r="T9" s="39">
+        <v>946</v>
+      </c>
+      <c r="U9" s="50">
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="V9" s="50">
+        <v>0.99999924921240957</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="49">
         <v>297</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="39">
         <v>856</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="39">
         <v>1060</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="39">
         <v>938</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="39">
         <v>955</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="50">
         <v>8.8512200100000011E-8</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="50">
         <v>0.99999991148779988</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="35">
+      <c r="P10" s="49">
+        <v>353</v>
+      </c>
+      <c r="Q10" s="39">
+        <v>933</v>
+      </c>
+      <c r="R10" s="39">
+        <v>955</v>
+      </c>
+      <c r="S10" s="39">
+        <v>955</v>
+      </c>
+      <c r="T10" s="39">
+        <v>964</v>
+      </c>
+      <c r="U10" s="50">
+        <v>7.5078759039999993E-7</v>
+      </c>
+      <c r="V10" s="50">
+        <v>0.99999924921240957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="49">
         <v>320</v>
       </c>
-      <c r="B11" s="34">
+      <c r="B11" s="39">
         <v>933</v>
       </c>
-      <c r="C11" s="34">
+      <c r="C11" s="39">
         <v>895</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="39">
         <v>933</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="39">
         <v>959</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="50">
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="50">
         <v>0.99999841819071</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="P11" s="49">
+        <v>375</v>
+      </c>
+      <c r="Q11" s="39">
+        <v>933</v>
+      </c>
+      <c r="R11" s="39">
+        <v>959</v>
+      </c>
+      <c r="S11" s="39">
+        <v>938</v>
+      </c>
+      <c r="T11" s="39">
+        <v>955</v>
+      </c>
+      <c r="U11" s="50">
+        <v>1.3354113599999999E-6</v>
+      </c>
+      <c r="V11" s="50">
+        <v>0.99999866458863995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="49">
         <v>324</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="39">
         <v>933</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="39">
         <v>895</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="39">
         <v>933</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="39">
         <v>959</v>
       </c>
-      <c r="F12" s="36">
+      <c r="F12" s="50">
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="G12" s="36">
+      <c r="G12" s="50">
         <v>0.99999841819071</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="35">
+      <c r="P12" s="49">
+        <v>377</v>
+      </c>
+      <c r="Q12" s="39">
+        <v>933</v>
+      </c>
+      <c r="R12" s="39">
+        <v>959</v>
+      </c>
+      <c r="S12" s="39">
+        <v>955</v>
+      </c>
+      <c r="T12" s="39">
+        <v>946</v>
+      </c>
+      <c r="U12" s="50">
+        <v>1.3354113599999999E-6</v>
+      </c>
+      <c r="V12" s="50">
+        <v>0.99999866458863995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="49">
         <v>326</v>
       </c>
-      <c r="B13" s="34">
+      <c r="B13" s="39">
         <v>933</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="39">
         <v>895</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="39">
         <v>955</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="39">
         <v>946</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="50">
         <v>1.5818092900000001E-6</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="50">
         <v>0.99999841819071</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35">
+      <c r="P13" s="49">
+        <v>444</v>
+      </c>
+      <c r="Q13" s="39">
+        <v>938</v>
+      </c>
+      <c r="R13" s="39">
+        <v>946</v>
+      </c>
+      <c r="S13" s="39">
+        <v>938</v>
+      </c>
+      <c r="T13" s="39">
+        <v>955</v>
+      </c>
+      <c r="U13" s="50">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="V13" s="50">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="49">
         <v>349</v>
       </c>
-      <c r="B14" s="34">
+      <c r="B14" s="39">
         <v>933</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="39">
         <v>955</v>
       </c>
-      <c r="D14" s="34">
+      <c r="D14" s="39">
         <v>938</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="39">
         <v>946</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="50">
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="50">
         <v>0.99999924921240957</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35">
+      <c r="P14" s="49">
+        <v>446</v>
+      </c>
+      <c r="Q14" s="39">
+        <v>938</v>
+      </c>
+      <c r="R14" s="39">
+        <v>946</v>
+      </c>
+      <c r="S14" s="39">
+        <v>955</v>
+      </c>
+      <c r="T14" s="39">
+        <v>946</v>
+      </c>
+      <c r="U14" s="50">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="V14" s="50">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="49">
         <v>352</v>
       </c>
-      <c r="B15" s="34">
+      <c r="B15" s="39">
         <v>933</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="39">
         <v>955</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="39">
         <v>955</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="39">
         <v>946</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="50">
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="50">
         <v>0.99999924921240957</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35">
+      <c r="P15" s="49">
+        <v>448</v>
+      </c>
+      <c r="Q15" s="39">
+        <v>938</v>
+      </c>
+      <c r="R15" s="39">
+        <v>946</v>
+      </c>
+      <c r="S15" s="39">
+        <v>959</v>
+      </c>
+      <c r="T15" s="39">
+        <v>895</v>
+      </c>
+      <c r="U15" s="50">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="V15" s="50">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="49">
         <v>353</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="39">
         <v>933</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="39">
         <v>955</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="39">
         <v>955</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="39">
         <v>964</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="50">
         <v>7.5078759039999993E-7</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="50">
         <v>0.99999924921240957</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="35">
+      <c r="P16" s="49">
+        <v>449</v>
+      </c>
+      <c r="Q16" s="39">
+        <v>938</v>
+      </c>
+      <c r="R16" s="39">
+        <v>946</v>
+      </c>
+      <c r="S16" s="39">
+        <v>960</v>
+      </c>
+      <c r="T16" s="39">
+        <v>1015</v>
+      </c>
+      <c r="U16" s="50">
+        <v>1.8299572840000001E-7</v>
+      </c>
+      <c r="V16" s="50">
+        <v>0.99999981700427165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="49">
         <v>375</v>
       </c>
-      <c r="B17" s="34">
+      <c r="B17" s="39">
         <v>933</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="39">
         <v>959</v>
       </c>
-      <c r="D17" s="34">
+      <c r="D17" s="39">
         <v>938</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="39">
         <v>955</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="50">
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="50">
         <v>0.99999866458863995</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="35">
+      <c r="P17" s="49">
+        <v>467</v>
+      </c>
+      <c r="Q17" s="39">
+        <v>938</v>
+      </c>
+      <c r="R17" s="39">
+        <v>955</v>
+      </c>
+      <c r="S17" s="39">
+        <v>955</v>
+      </c>
+      <c r="T17" s="39">
+        <v>946</v>
+      </c>
+      <c r="U17" s="50">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="V17" s="50">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="49">
         <v>377</v>
       </c>
-      <c r="B18" s="34">
+      <c r="B18" s="39">
         <v>933</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="39">
         <v>959</v>
       </c>
-      <c r="D18" s="34">
+      <c r="D18" s="39">
         <v>955</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="39">
         <v>946</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="50">
         <v>1.3354113599999999E-6</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="50">
         <v>0.99999866458863995</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="35">
+      <c r="P18" s="49">
+        <v>468</v>
+      </c>
+      <c r="Q18" s="39">
+        <v>938</v>
+      </c>
+      <c r="R18" s="39">
+        <v>955</v>
+      </c>
+      <c r="S18" s="39">
+        <v>955</v>
+      </c>
+      <c r="T18" s="39">
+        <v>964</v>
+      </c>
+      <c r="U18" s="50">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="V18" s="50">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="49">
         <v>444</v>
       </c>
-      <c r="B19" s="34">
+      <c r="B19" s="39">
         <v>938</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="39">
         <v>946</v>
       </c>
-      <c r="D19" s="34">
+      <c r="D19" s="39">
         <v>938</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="39">
         <v>955</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="50">
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="50">
         <v>0.99999981700427165</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="35">
+      <c r="P19" s="49">
+        <v>470</v>
+      </c>
+      <c r="Q19" s="39">
+        <v>938</v>
+      </c>
+      <c r="R19" s="39">
+        <v>955</v>
+      </c>
+      <c r="S19" s="39">
+        <v>960</v>
+      </c>
+      <c r="T19" s="39">
+        <v>1015</v>
+      </c>
+      <c r="U19" s="50">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="V19" s="50">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="49">
         <v>446</v>
       </c>
-      <c r="B20" s="34">
+      <c r="B20" s="39">
         <v>938</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="39">
         <v>946</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D20" s="39">
         <v>955</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="39">
         <v>946</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="50">
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="50">
         <v>0.99999981700427165</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="35">
+      <c r="P20" s="49">
+        <v>476</v>
+      </c>
+      <c r="Q20" s="39">
+        <v>938</v>
+      </c>
+      <c r="R20" s="39">
+        <v>955</v>
+      </c>
+      <c r="S20" s="39">
+        <v>999</v>
+      </c>
+      <c r="T20" s="39">
+        <v>933</v>
+      </c>
+      <c r="U20" s="50">
+        <v>1.5388402500000001E-6</v>
+      </c>
+      <c r="V20" s="50">
+        <v>0.99999846115975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="49">
         <v>448</v>
       </c>
-      <c r="B21" s="34">
+      <c r="B21" s="39">
         <v>938</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="39">
         <v>946</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="39">
         <v>959</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="39">
         <v>895</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="50">
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="50">
         <v>0.99999981700427165</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="35">
+      <c r="P21" s="49">
+        <v>487</v>
+      </c>
+      <c r="Q21" s="39">
+        <v>947</v>
+      </c>
+      <c r="R21" s="39">
+        <v>939</v>
+      </c>
+      <c r="S21" s="39">
+        <v>955</v>
+      </c>
+      <c r="T21" s="39">
+        <v>946</v>
+      </c>
+      <c r="U21" s="50">
+        <v>1.1307078760000001E-7</v>
+      </c>
+      <c r="V21" s="50">
+        <v>0.99999988692921238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="49">
         <v>449</v>
       </c>
-      <c r="B22" s="34">
+      <c r="B22" s="39">
         <v>938</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="39">
         <v>946</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="39">
         <v>960</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="39">
         <v>1015</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="50">
         <v>1.8299572840000001E-7</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="50">
         <v>0.99999981700427165</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="35">
+      <c r="P22" s="49">
+        <v>507</v>
+      </c>
+      <c r="Q22" s="39">
+        <v>955</v>
+      </c>
+      <c r="R22" s="39">
+        <v>946</v>
+      </c>
+      <c r="S22" s="39">
+        <v>955</v>
+      </c>
+      <c r="T22" s="39">
+        <v>964</v>
+      </c>
+      <c r="U22" s="50">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="V22" s="50">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="49">
         <v>467</v>
       </c>
-      <c r="B23" s="34">
+      <c r="B23" s="39">
         <v>938</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="39">
         <v>955</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="39">
         <v>955</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="39">
         <v>946</v>
       </c>
-      <c r="F23" s="36">
+      <c r="F23" s="50">
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="G23" s="36">
+      <c r="G23" s="50">
         <v>0.99999846115975</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="35">
+      <c r="P23" s="49">
+        <v>508</v>
+      </c>
+      <c r="Q23" s="39">
+        <v>955</v>
+      </c>
+      <c r="R23" s="39">
+        <v>946</v>
+      </c>
+      <c r="S23" s="39">
+        <v>959</v>
+      </c>
+      <c r="T23" s="39">
+        <v>895</v>
+      </c>
+      <c r="U23" s="50">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="V23" s="50">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="49">
         <v>468</v>
       </c>
-      <c r="B24" s="34">
+      <c r="B24" s="39">
         <v>938</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="39">
         <v>955</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="39">
         <v>955</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="39">
         <v>964</v>
       </c>
-      <c r="F24" s="36">
+      <c r="F24" s="50">
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="50">
         <v>0.99999846115975</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="35">
+      <c r="P24" s="49">
+        <v>509</v>
+      </c>
+      <c r="Q24" s="39">
+        <v>955</v>
+      </c>
+      <c r="R24" s="39">
+        <v>946</v>
+      </c>
+      <c r="S24" s="39">
+        <v>960</v>
+      </c>
+      <c r="T24" s="39">
+        <v>1015</v>
+      </c>
+      <c r="U24" s="50">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="V24" s="50">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="49">
         <v>470</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="39">
         <v>938</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="39">
         <v>955</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="39">
         <v>960</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="39">
         <v>1015</v>
       </c>
-      <c r="F25" s="36">
+      <c r="F25" s="50">
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="50">
         <v>0.99999846115975</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35">
+      <c r="P25" s="49">
+        <v>517</v>
+      </c>
+      <c r="Q25" s="39">
+        <v>955</v>
+      </c>
+      <c r="R25" s="39">
+        <v>946</v>
+      </c>
+      <c r="S25" s="39">
+        <v>1010</v>
+      </c>
+      <c r="T25" s="39">
+        <v>947</v>
+      </c>
+      <c r="U25" s="50">
+        <v>1.3305622500000001E-6</v>
+      </c>
+      <c r="V25" s="50">
+        <v>0.99999866943774995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
         <v>476</v>
       </c>
-      <c r="B26" s="34">
+      <c r="B26" s="39">
         <v>938</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="39">
         <v>955</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="39">
         <v>999</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="39">
         <v>933</v>
       </c>
-      <c r="F26" s="36">
+      <c r="F26" s="50">
         <v>1.5388402500000001E-6</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="50">
         <v>0.99999846115975</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="P26" s="49">
+        <v>528</v>
+      </c>
+      <c r="Q26" s="39">
+        <v>955</v>
+      </c>
+      <c r="R26" s="39">
+        <v>964</v>
+      </c>
+      <c r="S26" s="39">
+        <v>965</v>
+      </c>
+      <c r="T26" s="39">
+        <v>1057</v>
+      </c>
+      <c r="U26" s="50">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="V26" s="50">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="49">
         <v>487</v>
       </c>
-      <c r="B27" s="34">
+      <c r="B27" s="39">
         <v>947</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="39">
         <v>939</v>
       </c>
-      <c r="D27" s="34">
+      <c r="D27" s="39">
         <v>955</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="39">
         <v>946</v>
       </c>
-      <c r="F27" s="36">
+      <c r="F27" s="50">
         <v>1.1307078760000001E-7</v>
       </c>
-      <c r="G27" s="36">
+      <c r="G27" s="50">
         <v>0.99999988692921238</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="35">
+      <c r="P27" s="49">
+        <v>529</v>
+      </c>
+      <c r="Q27" s="39">
+        <v>955</v>
+      </c>
+      <c r="R27" s="39">
+        <v>964</v>
+      </c>
+      <c r="S27" s="39">
+        <v>976</v>
+      </c>
+      <c r="T27" s="39">
+        <v>979</v>
+      </c>
+      <c r="U27" s="50">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="V27" s="50">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="49">
         <v>507</v>
       </c>
-      <c r="B28" s="34">
+      <c r="B28" s="39">
         <v>955</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="39">
         <v>946</v>
       </c>
-      <c r="D28" s="34">
+      <c r="D28" s="39">
         <v>955</v>
       </c>
-      <c r="E28" s="34">
+      <c r="E28" s="39">
         <v>964</v>
       </c>
-      <c r="F28" s="36">
+      <c r="F28" s="50">
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="G28" s="36">
+      <c r="G28" s="50">
         <v>0.99999866943774995</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="P28" s="49">
+        <v>538</v>
+      </c>
+      <c r="Q28" s="39">
+        <v>955</v>
+      </c>
+      <c r="R28" s="39">
+        <v>964</v>
+      </c>
+      <c r="S28" s="39">
+        <v>1047</v>
+      </c>
+      <c r="T28" s="39">
+        <v>1069</v>
+      </c>
+      <c r="U28" s="50">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="V28" s="50">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="49">
         <v>508</v>
       </c>
-      <c r="B29" s="34">
+      <c r="B29" s="39">
         <v>955</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="39">
         <v>946</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="39">
         <v>959</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="39">
         <v>895</v>
       </c>
-      <c r="F29" s="36">
+      <c r="F29" s="50">
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="G29" s="36">
+      <c r="G29" s="50">
         <v>0.99999866943774995</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="35">
+      <c r="J29" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K29" s="40"/>
+      <c r="L29" s="40"/>
+      <c r="P29" s="49">
+        <v>539</v>
+      </c>
+      <c r="Q29" s="39">
+        <v>955</v>
+      </c>
+      <c r="R29" s="39">
+        <v>964</v>
+      </c>
+      <c r="S29" s="39">
+        <v>1057</v>
+      </c>
+      <c r="T29" s="39">
+        <v>1010</v>
+      </c>
+      <c r="U29" s="50">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="V29" s="50">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="49">
         <v>509</v>
       </c>
-      <c r="B30" s="34">
+      <c r="B30" s="39">
         <v>955</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="39">
         <v>946</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="39">
         <v>960</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="39">
         <v>1015</v>
       </c>
-      <c r="F30" s="36">
+      <c r="F30" s="50">
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="G30" s="36">
+      <c r="G30" s="50">
         <v>0.99999866943774995</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="35">
+      <c r="J30" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P30" s="49">
+        <v>541</v>
+      </c>
+      <c r="Q30" s="39">
+        <v>955</v>
+      </c>
+      <c r="R30" s="39">
+        <v>964</v>
+      </c>
+      <c r="S30" s="39">
+        <v>1069</v>
+      </c>
+      <c r="T30" s="39">
+        <v>1041</v>
+      </c>
+      <c r="U30" s="50">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="V30" s="50">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="49">
         <v>517</v>
       </c>
-      <c r="B31" s="34">
+      <c r="B31" s="39">
         <v>955</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="39">
         <v>946</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="39">
         <v>1010</v>
       </c>
-      <c r="E31" s="34">
+      <c r="E31" s="39">
         <v>947</v>
       </c>
-      <c r="F31" s="36">
+      <c r="F31" s="50">
         <v>1.3305622500000001E-6</v>
       </c>
-      <c r="G31" s="36">
+      <c r="G31" s="50">
         <v>0.99999866943774995</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="35">
+      <c r="J31" s="41">
+        <v>3100</v>
+      </c>
+      <c r="K31" s="41">
+        <v>7800</v>
+      </c>
+      <c r="L31" s="41">
+        <v>-4500</v>
+      </c>
+      <c r="P31" s="49">
+        <v>542</v>
+      </c>
+      <c r="Q31" s="39">
+        <v>955</v>
+      </c>
+      <c r="R31" s="39">
+        <v>964</v>
+      </c>
+      <c r="S31" s="39">
+        <v>1041</v>
+      </c>
+      <c r="T31" s="39">
+        <v>963</v>
+      </c>
+      <c r="U31" s="50">
+        <v>9.9810090250000007E-7</v>
+      </c>
+      <c r="V31" s="50">
+        <v>0.99999900189909752</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="49">
         <v>528</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="39">
         <v>955</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="39">
         <v>964</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="39">
         <v>965</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="39">
         <v>1057</v>
       </c>
-      <c r="F32" s="36">
+      <c r="F32" s="50">
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="G32" s="36">
+      <c r="G32" s="50">
         <v>0.99999900189909752</v>
       </c>
+      <c r="P32" s="49">
+        <v>638</v>
+      </c>
+      <c r="Q32" s="39">
+        <v>999</v>
+      </c>
+      <c r="R32" s="39">
+        <v>896</v>
+      </c>
+      <c r="S32" s="39">
+        <v>1060</v>
+      </c>
+      <c r="T32" s="39">
+        <v>897</v>
+      </c>
+      <c r="U32" s="50">
+        <v>1.0547289999999998E-6</v>
+      </c>
+      <c r="V32" s="50">
+        <v>0.99999894527099997</v>
+      </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="35">
+      <c r="A33" s="49">
         <v>529</v>
       </c>
-      <c r="B33" s="34">
+      <c r="B33" s="39">
         <v>955</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="39">
         <v>964</v>
       </c>
-      <c r="D33" s="34">
+      <c r="D33" s="39">
         <v>976</v>
       </c>
-      <c r="E33" s="34">
+      <c r="E33" s="39">
         <v>979</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="50">
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="50">
         <v>0.99999900189909752</v>
       </c>
+      <c r="J33" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="K33" s="40"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="35">
+      <c r="A34" s="49">
         <v>538</v>
       </c>
-      <c r="B34" s="34">
+      <c r="B34" s="39">
         <v>955</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="39">
         <v>964</v>
       </c>
-      <c r="D34" s="34">
+      <c r="D34" s="39">
         <v>1047</v>
       </c>
-      <c r="E34" s="34">
+      <c r="E34" s="39">
         <v>1069</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="50">
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="50">
         <v>0.99999900189909752</v>
       </c>
+      <c r="J34" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="35">
+      <c r="A35" s="49">
         <v>539</v>
       </c>
-      <c r="B35" s="34">
+      <c r="B35" s="39">
         <v>955</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="39">
         <v>964</v>
       </c>
-      <c r="D35" s="34">
+      <c r="D35" s="39">
         <v>1057</v>
       </c>
-      <c r="E35" s="34">
+      <c r="E35" s="39">
         <v>1010</v>
       </c>
-      <c r="F35" s="36">
+      <c r="F35" s="50">
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="50">
         <v>0.99999900189909752</v>
       </c>
+      <c r="J35" s="42">
+        <v>-0.2</v>
+      </c>
+      <c r="K35" s="42">
+        <v>-0.2</v>
+      </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="35">
+      <c r="A36" s="49">
         <v>541</v>
       </c>
-      <c r="B36" s="34">
+      <c r="B36" s="39">
         <v>955</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="39">
         <v>964</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="39">
         <v>1069</v>
       </c>
-      <c r="E36" s="34">
+      <c r="E36" s="39">
         <v>1041</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="50">
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="50">
         <v>0.99999900189909752</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="35">
+      <c r="A37" s="49">
         <v>542</v>
       </c>
-      <c r="B37" s="34">
+      <c r="B37" s="39">
         <v>955</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="39">
         <v>964</v>
       </c>
-      <c r="D37" s="34">
+      <c r="D37" s="39">
         <v>1041</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="39">
         <v>963</v>
       </c>
-      <c r="F37" s="36">
+      <c r="F37" s="50">
         <v>9.9810090250000007E-7</v>
       </c>
-      <c r="G37" s="36">
+      <c r="G37" s="50">
         <v>0.99999900189909752</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="35">
+      <c r="A38" s="49">
         <v>638</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="39">
         <v>999</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="39">
         <v>896</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="39">
         <v>1060</v>
       </c>
-      <c r="E38" s="34">
+      <c r="E38" s="39">
         <v>897</v>
       </c>
-      <c r="F38" s="36">
+      <c r="F38" s="50">
         <v>1.0547289999999998E-6</v>
       </c>
-      <c r="G38" s="36">
+      <c r="G38" s="50">
         <v>0.99999894527099997</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
+      <c r="A39" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="37">
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="51">
         <f>1-Tabela1[[#Totals],[P Eq]]</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="G39" s="37">
+      <c r="G39" s="51">
         <f>PRODUCT(Tabela1[P Eq])</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="J39" s="35" t="s">
+      <c r="J39" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="K39" s="37">
+      <c r="K39" s="31">
         <f>1-Tabela1[[#Totals],[P Eq]]</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="L39" s="37">
+      <c r="L39" s="31">
         <f>PRODUCT(Tabela1[P Eq])</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="M39" s="39">
+      <c r="M39" s="33">
         <f>L39+K39</f>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38">
+      <c r="A40" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49">
         <f>Tabela1[[#Totals],[Q Eq]]</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="G40" s="38">
+      <c r="G40" s="49">
         <f>Tabela1[[#Totals],[P Eq]]</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="J40" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="K40" s="38">
+      <c r="J40" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="K40" s="37">
         <f>Tabela1[[#Totals],[Q Eq]]</f>
         <v>5.4527375875919049E-3</v>
       </c>
-      <c r="L40" s="38">
+      <c r="L40" s="37">
         <f>Tabela1[[#Totals],[P Eq]]</f>
         <v>0.9945472624124081</v>
       </c>
-      <c r="M40" s="40">
+      <c r="M40" s="38">
         <f>L40+K40</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J33:K33"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
